--- a/CLINICA URDENOR/20240400538 PLACA DHS ACERO+ CANULADOS 6.5.xlsx
+++ b/CLINICA URDENOR/20240400538 PLACA DHS ACERO+ CANULADOS 6.5.xlsx
@@ -1491,8 +1491,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1996,7 +1996,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2161,78 +2161,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2448,6 +2376,78 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2836,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N328"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="72" zoomScaleNormal="100" zoomScaleSheetLayoutView="72" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3235,13 +3235,13 @@
     <row r="2" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="D2" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="154"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3252,7 +3252,7 @@
     <row r="3" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="76"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
@@ -3267,13 +3267,13 @@
     <row r="4" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="82"/>
+      <c r="E4" s="158"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3284,19 +3284,19 @@
     <row r="5" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="84"/>
+      <c r="E5" s="160"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="20.149999999999999" customHeight="1">
@@ -3305,8 +3305,8 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
     </row>
     <row r="7" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -3361,10 +3361,10 @@
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="25" t="s">
         <v>13</v>
       </c>
@@ -3522,16 +3522,16 @@
       <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="88">
+      <c r="B24" s="64">
         <v>200214650</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="63">
         <v>1</v>
       </c>
       <c r="E24" s="39"/>
@@ -3539,16 +3539,16 @@
       <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="63">
         <v>1</v>
       </c>
       <c r="E25" s="39"/>
@@ -3556,16 +3556,16 @@
       <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="88">
+      <c r="B26" s="64">
         <v>210126806</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="63">
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
@@ -3573,16 +3573,16 @@
       <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="63">
         <v>1</v>
       </c>
       <c r="E27" s="39"/>
@@ -3590,16 +3590,16 @@
       <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="63">
         <v>1</v>
       </c>
       <c r="E28" s="39"/>
@@ -3607,16 +3607,16 @@
       <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="63">
         <v>1</v>
       </c>
       <c r="E29" s="39"/>
@@ -3624,16 +3624,16 @@
       <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="87">
+      <c r="D30" s="63">
         <v>1</v>
       </c>
       <c r="E30" s="39"/>
@@ -3641,16 +3641,16 @@
       <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="63">
         <v>0</v>
       </c>
       <c r="E31" s="39"/>
@@ -3658,16 +3658,16 @@
       <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="63">
         <v>1</v>
       </c>
       <c r="E32" s="39"/>
@@ -3675,16 +3675,16 @@
       <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="87">
+      <c r="D33" s="63">
         <v>1</v>
       </c>
       <c r="E33" s="39"/>
@@ -3692,10 +3692,10 @@
       <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="95">
+      <c r="A34" s="142"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="71">
         <v>9</v>
       </c>
       <c r="E34" s="39"/>
@@ -3703,16 +3703,16 @@
       <c r="M34" s="36"/>
     </row>
     <row r="35" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="88">
+      <c r="B35" s="64">
         <v>200416969</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="63">
         <v>0</v>
       </c>
       <c r="E35" s="39"/>
@@ -3720,16 +3720,16 @@
       <c r="M35" s="36"/>
     </row>
     <row r="36" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="93">
+      <c r="B36" s="69">
         <v>200416970</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="87">
+      <c r="D36" s="63">
         <v>1</v>
       </c>
       <c r="E36" s="39"/>
@@ -3737,16 +3737,16 @@
       <c r="M36" s="36"/>
     </row>
     <row r="37" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="88">
+      <c r="B37" s="64">
         <v>200113467</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="87">
+      <c r="D37" s="63">
         <v>1</v>
       </c>
       <c r="E37" s="39"/>
@@ -3754,16 +3754,16 @@
       <c r="M37" s="36"/>
     </row>
     <row r="38" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="93">
+      <c r="B38" s="69">
         <v>200113466</v>
       </c>
-      <c r="C38" s="94" t="s">
+      <c r="C38" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="63">
         <v>1</v>
       </c>
       <c r="E38" s="39"/>
@@ -3771,16 +3771,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="39" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="88">
+      <c r="B39" s="64">
         <v>210126807</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="87">
+      <c r="D39" s="63">
         <v>1</v>
       </c>
       <c r="E39" s="39"/>
@@ -3788,16 +3788,16 @@
       <c r="M39" s="36"/>
     </row>
     <row r="40" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="90">
+      <c r="B40" s="66">
         <v>210126807</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="87">
+      <c r="D40" s="63">
         <v>0</v>
       </c>
       <c r="E40" s="39"/>
@@ -3805,10 +3805,10 @@
       <c r="M40" s="36"/>
     </row>
     <row r="41" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="95">
+      <c r="A41" s="145"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="71">
         <v>4</v>
       </c>
       <c r="E41" s="39"/>
@@ -3816,16 +3816,16 @@
       <c r="M41" s="36"/>
     </row>
     <row r="42" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="87">
+      <c r="D42" s="63">
         <v>1</v>
       </c>
       <c r="E42" s="39"/>
@@ -3833,16 +3833,16 @@
       <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="97" t="s">
+      <c r="C43" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="87">
+      <c r="D43" s="63">
         <v>2</v>
       </c>
       <c r="E43" s="39"/>
@@ -3850,16 +3850,16 @@
       <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="87">
+      <c r="D44" s="63">
         <v>2</v>
       </c>
       <c r="E44" s="39"/>
@@ -3867,16 +3867,16 @@
       <c r="M44" s="36"/>
     </row>
     <row r="45" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="97" t="s">
+      <c r="C45" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="87">
+      <c r="D45" s="63">
         <v>2</v>
       </c>
       <c r="E45" s="39"/>
@@ -3884,16 +3884,16 @@
       <c r="M45" s="36"/>
     </row>
     <row r="46" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="96" t="s">
+      <c r="C46" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="87">
+      <c r="D46" s="63">
         <v>2</v>
       </c>
       <c r="E46" s="39"/>
@@ -3901,16 +3901,16 @@
       <c r="M46" s="36"/>
     </row>
     <row r="47" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="93" t="s">
+      <c r="B47" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="97" t="s">
+      <c r="C47" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="87">
+      <c r="D47" s="63">
         <v>2</v>
       </c>
       <c r="E47" s="39"/>
@@ -3918,16 +3918,16 @@
       <c r="M47" s="36"/>
     </row>
     <row r="48" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="96" t="s">
+      <c r="C48" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="87">
+      <c r="D48" s="63">
         <v>2</v>
       </c>
       <c r="E48" s="39"/>
@@ -3935,16 +3935,16 @@
       <c r="M48" s="36"/>
     </row>
     <row r="49" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="96" t="s">
+      <c r="C49" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="87">
+      <c r="D49" s="63">
         <v>2</v>
       </c>
       <c r="E49" s="39"/>
@@ -3952,16 +3952,16 @@
       <c r="M49" s="36"/>
     </row>
     <row r="50" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="96" t="s">
+      <c r="C50" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="87">
+      <c r="D50" s="63">
         <v>2</v>
       </c>
       <c r="E50" s="39"/>
@@ -3969,16 +3969,16 @@
       <c r="M50" s="36"/>
     </row>
     <row r="51" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A51" s="93" t="s">
+      <c r="A51" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="87">
+      <c r="D51" s="63">
         <v>1</v>
       </c>
       <c r="E51" s="39"/>
@@ -3986,16 +3986,16 @@
       <c r="M51" s="36"/>
     </row>
     <row r="52" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="87">
+      <c r="D52" s="63">
         <v>1</v>
       </c>
       <c r="E52" s="39"/>
@@ -4003,16 +4003,16 @@
       <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="88" t="s">
+      <c r="B53" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="96" t="s">
+      <c r="C53" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="87">
+      <c r="D53" s="63">
         <v>2</v>
       </c>
       <c r="E53" s="39"/>
@@ -4020,16 +4020,16 @@
       <c r="M53" s="36"/>
     </row>
     <row r="54" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="97" t="s">
+      <c r="C54" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="87">
+      <c r="D54" s="63">
         <v>2</v>
       </c>
       <c r="E54" s="39"/>
@@ -4037,16 +4037,16 @@
       <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="88">
+      <c r="B55" s="64">
         <v>200112869</v>
       </c>
-      <c r="C55" s="96" t="s">
+      <c r="C55" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="87">
+      <c r="D55" s="63">
         <v>2</v>
       </c>
       <c r="E55" s="39"/>
@@ -4054,16 +4054,16 @@
       <c r="M55" s="36"/>
     </row>
     <row r="56" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A56" s="88" t="s">
+      <c r="A56" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="88" t="s">
+      <c r="B56" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="96" t="s">
+      <c r="C56" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="87">
+      <c r="D56" s="63">
         <v>0</v>
       </c>
       <c r="E56" s="39"/>
@@ -4071,16 +4071,16 @@
       <c r="M56" s="36"/>
     </row>
     <row r="57" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="87">
+      <c r="B57" s="63">
         <v>210936600</v>
       </c>
-      <c r="C57" s="96" t="s">
+      <c r="C57" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="87">
+      <c r="D57" s="63">
         <v>1</v>
       </c>
       <c r="E57" s="39"/>
@@ -4088,10 +4088,10 @@
       <c r="M57" s="36"/>
     </row>
     <row r="58" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A58" s="70"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="95">
+      <c r="A58" s="148"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="150"/>
+      <c r="D58" s="71">
         <v>26</v>
       </c>
       <c r="E58" s="39"/>
@@ -4099,16 +4099,16 @@
       <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="110">
+      <c r="B59" s="86">
         <v>210228500</v>
       </c>
-      <c r="C59" s="114" t="s">
+      <c r="C59" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="D59" s="115">
+      <c r="D59" s="91">
         <v>2</v>
       </c>
       <c r="E59" s="39"/>
@@ -4116,16 +4116,16 @@
       <c r="M59" s="36"/>
     </row>
     <row r="60" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="116">
+      <c r="B60" s="92">
         <v>201225757</v>
       </c>
-      <c r="C60" s="113" t="s">
+      <c r="C60" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="D60" s="115">
+      <c r="D60" s="91">
         <v>2</v>
       </c>
       <c r="E60" s="39"/>
@@ -4133,16 +4133,16 @@
       <c r="M60" s="36"/>
     </row>
     <row r="61" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="110">
+      <c r="B61" s="86">
         <v>201225758</v>
       </c>
-      <c r="C61" s="114" t="s">
+      <c r="C61" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="D61" s="115">
+      <c r="D61" s="91">
         <v>2</v>
       </c>
       <c r="E61" s="39"/>
@@ -4150,16 +4150,16 @@
       <c r="M61" s="36"/>
     </row>
     <row r="62" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A62" s="116" t="s">
+      <c r="A62" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="116">
+      <c r="B62" s="92">
         <v>210330220</v>
       </c>
-      <c r="C62" s="113" t="s">
+      <c r="C62" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="D62" s="115">
+      <c r="D62" s="91">
         <v>2</v>
       </c>
       <c r="E62" s="39"/>
@@ -4167,16 +4167,16 @@
       <c r="M62" s="36"/>
     </row>
     <row r="63" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A63" s="117" t="s">
+      <c r="A63" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="117">
+      <c r="B63" s="93">
         <v>210733736</v>
       </c>
-      <c r="C63" s="118" t="s">
+      <c r="C63" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="D63" s="115">
+      <c r="D63" s="91">
         <v>2</v>
       </c>
       <c r="E63" s="39"/>
@@ -4184,16 +4184,16 @@
       <c r="M63" s="36"/>
     </row>
     <row r="64" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A64" s="116" t="s">
+      <c r="A64" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B64" s="116" t="s">
+      <c r="B64" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="113" t="s">
+      <c r="C64" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="D64" s="115">
+      <c r="D64" s="91">
         <v>2</v>
       </c>
       <c r="E64" s="39"/>
@@ -4201,16 +4201,16 @@
       <c r="M64" s="36"/>
     </row>
     <row r="65" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="B65" s="110">
+      <c r="B65" s="86">
         <v>200112170</v>
       </c>
-      <c r="C65" s="114" t="s">
+      <c r="C65" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="D65" s="115">
+      <c r="D65" s="91">
         <v>2</v>
       </c>
       <c r="E65" s="39"/>
@@ -4218,16 +4218,16 @@
       <c r="M65" s="36"/>
     </row>
     <row r="66" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A66" s="116" t="s">
+      <c r="A66" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="116">
+      <c r="B66" s="92">
         <v>200112171</v>
       </c>
-      <c r="C66" s="113" t="s">
+      <c r="C66" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="D66" s="115">
+      <c r="D66" s="91">
         <v>2</v>
       </c>
       <c r="E66" s="39"/>
@@ -4235,16 +4235,16 @@
       <c r="M66" s="36"/>
     </row>
     <row r="67" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A67" s="110" t="s">
+      <c r="A67" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="B67" s="110">
+      <c r="B67" s="86">
         <v>200112565</v>
       </c>
-      <c r="C67" s="114" t="s">
+      <c r="C67" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="D67" s="115">
+      <c r="D67" s="91">
         <v>2</v>
       </c>
       <c r="E67" s="39"/>
@@ -4252,16 +4252,16 @@
       <c r="M67" s="36"/>
     </row>
     <row r="68" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A68" s="116" t="s">
+      <c r="A68" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="116">
+      <c r="B68" s="92">
         <v>200112173</v>
       </c>
-      <c r="C68" s="113" t="s">
+      <c r="C68" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="115">
+      <c r="D68" s="91">
         <v>2</v>
       </c>
       <c r="E68" s="39"/>
@@ -4269,16 +4269,16 @@
       <c r="M68" s="36"/>
     </row>
     <row r="69" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="110">
+      <c r="B69" s="86">
         <v>210936631</v>
       </c>
-      <c r="C69" s="114" t="s">
+      <c r="C69" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="115">
+      <c r="D69" s="91">
         <v>2</v>
       </c>
       <c r="E69" s="39"/>
@@ -4286,16 +4286,16 @@
       <c r="M69" s="36"/>
     </row>
     <row r="70" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A70" s="116" t="s">
+      <c r="A70" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="116">
+      <c r="B70" s="92">
         <v>210936632</v>
       </c>
-      <c r="C70" s="113" t="s">
+      <c r="C70" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="D70" s="115">
+      <c r="D70" s="91">
         <v>2</v>
       </c>
       <c r="E70" s="39"/>
@@ -4303,16 +4303,16 @@
       <c r="M70" s="36"/>
     </row>
     <row r="71" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B71" s="110">
+      <c r="B71" s="86">
         <v>210936633</v>
       </c>
-      <c r="C71" s="114" t="s">
+      <c r="C71" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="115">
+      <c r="D71" s="91">
         <v>2</v>
       </c>
       <c r="E71" s="39"/>
@@ -4320,16 +4320,16 @@
       <c r="M71" s="36"/>
     </row>
     <row r="72" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A72" s="119" t="s">
+      <c r="A72" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="119">
+      <c r="B72" s="95">
         <v>210936633</v>
       </c>
-      <c r="C72" s="120" t="s">
+      <c r="C72" s="96" t="s">
         <v>279</v>
       </c>
-      <c r="D72" s="115">
+      <c r="D72" s="91">
         <v>2</v>
       </c>
       <c r="E72" s="39"/>
@@ -4337,16 +4337,16 @@
       <c r="M72" s="36"/>
     </row>
     <row r="73" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A73" s="110" t="s">
+      <c r="A73" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="110">
+      <c r="B73" s="86">
         <v>210936633</v>
       </c>
-      <c r="C73" s="114" t="s">
+      <c r="C73" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="D73" s="115">
+      <c r="D73" s="91">
         <v>2</v>
       </c>
       <c r="E73" s="39"/>
@@ -4354,16 +4354,16 @@
       <c r="M73" s="36"/>
     </row>
     <row r="74" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A74" s="121" t="s">
+      <c r="A74" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="121">
+      <c r="B74" s="97">
         <v>210936633</v>
       </c>
-      <c r="C74" s="122" t="s">
+      <c r="C74" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="D74" s="115">
+      <c r="D74" s="91">
         <v>2</v>
       </c>
       <c r="E74" s="39"/>
@@ -4371,16 +4371,16 @@
       <c r="M74" s="36"/>
     </row>
     <row r="75" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A75" s="110" t="s">
+      <c r="A75" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="110">
+      <c r="B75" s="86">
         <v>210936633</v>
       </c>
-      <c r="C75" s="114" t="s">
+      <c r="C75" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="115">
+      <c r="D75" s="91">
         <v>2</v>
       </c>
       <c r="E75" s="39"/>
@@ -4388,16 +4388,16 @@
       <c r="M75" s="36"/>
     </row>
     <row r="76" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A76" s="121" t="s">
+      <c r="A76" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="121">
+      <c r="B76" s="97">
         <v>210936633</v>
       </c>
-      <c r="C76" s="122" t="s">
+      <c r="C76" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="D76" s="115">
+      <c r="D76" s="91">
         <v>2</v>
       </c>
       <c r="E76" s="39"/>
@@ -4405,16 +4405,16 @@
       <c r="M76" s="36"/>
     </row>
     <row r="77" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A77" s="110" t="s">
+      <c r="A77" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="B77" s="110">
+      <c r="B77" s="86">
         <v>210936633</v>
       </c>
-      <c r="C77" s="114" t="s">
+      <c r="C77" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="D77" s="115">
+      <c r="D77" s="91">
         <v>2</v>
       </c>
       <c r="E77" s="39"/>
@@ -4422,16 +4422,16 @@
       <c r="M77" s="36"/>
     </row>
     <row r="78" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A78" s="116" t="s">
+      <c r="A78" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="116">
+      <c r="B78" s="92">
         <v>210936633</v>
       </c>
-      <c r="C78" s="113" t="s">
+      <c r="C78" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="D78" s="115">
+      <c r="D78" s="91">
         <v>2</v>
       </c>
       <c r="E78" s="39"/>
@@ -4439,16 +4439,16 @@
       <c r="M78" s="36"/>
     </row>
     <row r="79" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A79" s="116" t="s">
+      <c r="A79" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="116" t="s">
+      <c r="B79" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="C79" s="113" t="s">
+      <c r="C79" s="89" t="s">
         <v>287</v>
       </c>
-      <c r="D79" s="115">
+      <c r="D79" s="91">
         <v>2</v>
       </c>
       <c r="E79" s="39"/>
@@ -4456,16 +4456,16 @@
       <c r="M79" s="36"/>
     </row>
     <row r="80" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A80" s="110" t="s">
+      <c r="A80" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="116" t="s">
+      <c r="B80" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="C80" s="114" t="s">
+      <c r="C80" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="D80" s="115">
+      <c r="D80" s="91">
         <v>2</v>
       </c>
       <c r="E80" s="39"/>
@@ -4473,10 +4473,10 @@
       <c r="M80" s="36"/>
     </row>
     <row r="81" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A81" s="111"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="113"/>
-      <c r="D81" s="108">
+      <c r="A81" s="87"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="84">
         <v>44</v>
       </c>
       <c r="E81" s="39"/>
@@ -4484,16 +4484,16 @@
       <c r="M81" s="36"/>
     </row>
     <row r="82" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A82" s="110" t="s">
+      <c r="A82" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B82" s="112">
+      <c r="B82" s="88">
         <v>210936633</v>
       </c>
-      <c r="C82" s="113" t="s">
+      <c r="C82" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="D82" s="115">
+      <c r="D82" s="91">
         <v>7</v>
       </c>
       <c r="E82" s="39"/>
@@ -4501,16 +4501,16 @@
       <c r="M82" s="36"/>
     </row>
     <row r="83" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A83" s="110" t="s">
+      <c r="A83" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="110" t="s">
+      <c r="B83" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="C83" s="113" t="s">
+      <c r="C83" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="D83" s="115">
+      <c r="D83" s="91">
         <v>8</v>
       </c>
       <c r="E83" s="39"/>
@@ -4518,16 +4518,16 @@
       <c r="M83" s="36"/>
     </row>
     <row r="84" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A84" s="116" t="s">
+      <c r="A84" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="B84" s="116" t="s">
+      <c r="B84" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="C84" s="114" t="s">
+      <c r="C84" s="90" t="s">
         <v>294</v>
       </c>
-      <c r="D84" s="115">
+      <c r="D84" s="91">
         <v>8</v>
       </c>
       <c r="E84" s="39"/>
@@ -4535,16 +4535,16 @@
       <c r="M84" s="36"/>
     </row>
     <row r="85" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A85" s="110" t="s">
+      <c r="A85" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="B85" s="110" t="s">
+      <c r="B85" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="113" t="s">
+      <c r="C85" s="89" t="s">
         <v>295</v>
       </c>
-      <c r="D85" s="115">
+      <c r="D85" s="91">
         <v>8</v>
       </c>
       <c r="E85" s="39"/>
@@ -4552,16 +4552,16 @@
       <c r="M85" s="36"/>
     </row>
     <row r="86" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A86" s="116" t="s">
+      <c r="A86" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="B86" s="116">
+      <c r="B86" s="92">
         <v>190906311</v>
       </c>
-      <c r="C86" s="114" t="s">
+      <c r="C86" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="D86" s="115">
+      <c r="D86" s="91">
         <v>8</v>
       </c>
       <c r="E86" s="39"/>
@@ -4569,16 +4569,16 @@
       <c r="M86" s="36"/>
     </row>
     <row r="87" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A87" s="110" t="s">
+      <c r="A87" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="B87" s="110" t="s">
+      <c r="B87" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="113" t="s">
+      <c r="C87" s="89" t="s">
         <v>297</v>
       </c>
-      <c r="D87" s="115">
+      <c r="D87" s="91">
         <v>8</v>
       </c>
       <c r="E87" s="39"/>
@@ -4586,16 +4586,16 @@
       <c r="M87" s="36"/>
     </row>
     <row r="88" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="B88" s="116" t="s">
+      <c r="B88" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="C88" s="114" t="s">
+      <c r="C88" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="D88" s="115">
+      <c r="D88" s="91">
         <v>8</v>
       </c>
       <c r="E88" s="39"/>
@@ -4603,16 +4603,16 @@
       <c r="M88" s="36"/>
     </row>
     <row r="89" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A89" s="110" t="s">
+      <c r="A89" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="B89" s="110" t="s">
+      <c r="B89" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C89" s="113" t="s">
+      <c r="C89" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="D89" s="115">
+      <c r="D89" s="91">
         <v>8</v>
       </c>
       <c r="E89" s="39"/>
@@ -4620,16 +4620,16 @@
       <c r="M89" s="36"/>
     </row>
     <row r="90" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A90" s="116" t="s">
+      <c r="A90" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B90" s="116" t="s">
+      <c r="B90" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="C90" s="114" t="s">
+      <c r="C90" s="90" t="s">
         <v>300</v>
       </c>
-      <c r="D90" s="115">
+      <c r="D90" s="91">
         <v>8</v>
       </c>
       <c r="E90" s="39"/>
@@ -4637,16 +4637,16 @@
       <c r="M90" s="36"/>
     </row>
     <row r="91" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A91" s="110" t="s">
+      <c r="A91" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="110" t="s">
+      <c r="B91" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="113" t="s">
+      <c r="C91" s="89" t="s">
         <v>301</v>
       </c>
-      <c r="D91" s="115">
+      <c r="D91" s="91">
         <v>8</v>
       </c>
       <c r="E91" s="39"/>
@@ -4654,16 +4654,16 @@
       <c r="M91" s="36"/>
     </row>
     <row r="92" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A92" s="116" t="s">
+      <c r="A92" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="B92" s="116">
+      <c r="B92" s="92">
         <v>200112208</v>
       </c>
-      <c r="C92" s="114" t="s">
+      <c r="C92" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="D92" s="115">
+      <c r="D92" s="91">
         <v>8</v>
       </c>
       <c r="E92" s="39"/>
@@ -4671,16 +4671,16 @@
       <c r="M92" s="36"/>
     </row>
     <row r="93" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A93" s="110" t="s">
+      <c r="A93" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="B93" s="110" t="s">
+      <c r="B93" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="113" t="s">
+      <c r="C93" s="89" t="s">
         <v>303</v>
       </c>
-      <c r="D93" s="115">
+      <c r="D93" s="91">
         <v>8</v>
       </c>
       <c r="E93" s="39"/>
@@ -4688,16 +4688,16 @@
       <c r="M93" s="36"/>
     </row>
     <row r="94" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A94" s="116" t="s">
+      <c r="A94" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="116" t="s">
+      <c r="B94" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="C94" s="114" t="s">
+      <c r="C94" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="D94" s="115">
+      <c r="D94" s="91">
         <v>8</v>
       </c>
       <c r="E94" s="39"/>
@@ -4705,16 +4705,16 @@
       <c r="M94" s="36"/>
     </row>
     <row r="95" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A95" s="110" t="s">
+      <c r="A95" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="B95" s="110" t="s">
+      <c r="B95" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="113" t="s">
+      <c r="C95" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="D95" s="115">
+      <c r="D95" s="91">
         <v>8</v>
       </c>
       <c r="E95" s="39"/>
@@ -4722,16 +4722,16 @@
       <c r="M95" s="36"/>
     </row>
     <row r="96" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A96" s="116" t="s">
+      <c r="A96" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="B96" s="116" t="s">
+      <c r="B96" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="114" t="s">
+      <c r="C96" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="D96" s="115">
+      <c r="D96" s="91">
         <v>8</v>
       </c>
       <c r="E96" s="39"/>
@@ -4739,16 +4739,16 @@
       <c r="M96" s="36"/>
     </row>
     <row r="97" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A97" s="110" t="s">
+      <c r="A97" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="B97" s="110" t="s">
+      <c r="B97" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="113" t="s">
+      <c r="C97" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="D97" s="115">
+      <c r="D97" s="91">
         <v>6</v>
       </c>
       <c r="E97" s="39"/>
@@ -4756,16 +4756,16 @@
       <c r="M97" s="36"/>
     </row>
     <row r="98" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="116" t="s">
+      <c r="B98" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="114" t="s">
+      <c r="C98" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="D98" s="115">
+      <c r="D98" s="91">
         <v>6</v>
       </c>
       <c r="E98" s="39"/>
@@ -4773,16 +4773,16 @@
       <c r="M98" s="36"/>
     </row>
     <row r="99" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A99" s="110" t="s">
+      <c r="A99" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="C99" s="113" t="s">
+      <c r="C99" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="D99" s="115">
+      <c r="D99" s="91">
         <v>6</v>
       </c>
       <c r="E99" s="39"/>
@@ -4790,16 +4790,16 @@
       <c r="M99" s="36"/>
     </row>
     <row r="100" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A100" s="116" t="s">
+      <c r="A100" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="B100" s="116" t="s">
+      <c r="B100" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="114" t="s">
+      <c r="C100" s="90" t="s">
         <v>310</v>
       </c>
-      <c r="D100" s="115">
+      <c r="D100" s="91">
         <v>6</v>
       </c>
       <c r="E100" s="39"/>
@@ -4807,16 +4807,16 @@
       <c r="M100" s="36"/>
     </row>
     <row r="101" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A101" s="110" t="s">
+      <c r="A101" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="117" t="s">
+      <c r="B101" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="C101" s="113" t="s">
+      <c r="C101" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="D101" s="115">
+      <c r="D101" s="91">
         <v>6</v>
       </c>
       <c r="E101" s="39"/>
@@ -4824,16 +4824,16 @@
       <c r="M101" s="36"/>
     </row>
     <row r="102" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A102" s="121" t="s">
+      <c r="A102" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="B102" s="121" t="s">
+      <c r="B102" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="C102" s="118" t="s">
+      <c r="C102" s="94" t="s">
         <v>312</v>
       </c>
-      <c r="D102" s="115">
+      <c r="D102" s="91">
         <v>6</v>
       </c>
       <c r="E102" s="39"/>
@@ -4841,16 +4841,16 @@
       <c r="M102" s="36"/>
     </row>
     <row r="103" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A103" s="110" t="s">
+      <c r="A103" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="B103" s="110" t="s">
+      <c r="B103" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="C103" s="113" t="s">
+      <c r="C103" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="D103" s="115">
+      <c r="D103" s="91">
         <v>6</v>
       </c>
       <c r="E103" s="39"/>
@@ -4858,16 +4858,16 @@
       <c r="M103" s="36"/>
     </row>
     <row r="104" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A104" s="119" t="s">
+      <c r="A104" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="B104" s="119" t="s">
+      <c r="B104" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="C104" s="114" t="s">
+      <c r="C104" s="90" t="s">
         <v>314</v>
       </c>
-      <c r="D104" s="115">
+      <c r="D104" s="91">
         <v>6</v>
       </c>
       <c r="E104" s="39"/>
@@ -4875,16 +4875,16 @@
       <c r="M104" s="36"/>
     </row>
     <row r="105" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A105" s="110" t="s">
+      <c r="A105" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="B105" s="110" t="s">
+      <c r="B105" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="113" t="s">
+      <c r="C105" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="D105" s="115">
+      <c r="D105" s="91">
         <v>5</v>
       </c>
       <c r="E105" s="39"/>
@@ -4892,16 +4892,16 @@
       <c r="M105" s="36"/>
     </row>
     <row r="106" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A106" s="110" t="s">
+      <c r="A106" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="110" t="s">
+      <c r="B106" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="113" t="s">
+      <c r="C106" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="D106" s="115">
+      <c r="D106" s="91">
         <v>1</v>
       </c>
       <c r="E106" s="39"/>
@@ -4909,16 +4909,16 @@
       <c r="M106" s="36"/>
     </row>
     <row r="107" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A107" s="116" t="s">
+      <c r="A107" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="B107" s="116" t="s">
+      <c r="B107" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="C107" s="114" t="s">
+      <c r="C107" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="115">
+      <c r="D107" s="91">
         <v>6</v>
       </c>
       <c r="E107" s="39"/>
@@ -4926,16 +4926,16 @@
       <c r="M107" s="36"/>
     </row>
     <row r="108" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A108" s="110" t="s">
+      <c r="A108" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="B108" s="110" t="s">
+      <c r="B108" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="C108" s="113" t="s">
+      <c r="C108" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="D108" s="115">
+      <c r="D108" s="91">
         <v>6</v>
       </c>
       <c r="E108" s="39"/>
@@ -4943,16 +4943,16 @@
       <c r="M108" s="36"/>
     </row>
     <row r="109" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A109" s="111" t="s">
+      <c r="A109" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="B109" s="112" t="s">
+      <c r="B109" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="C109" s="113" t="s">
+      <c r="C109" s="89" t="s">
         <v>319</v>
       </c>
-      <c r="D109" s="115">
+      <c r="D109" s="91">
         <v>0</v>
       </c>
       <c r="E109" s="39"/>
@@ -4960,10 +4960,10 @@
       <c r="M109" s="36"/>
     </row>
     <row r="110" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A110" s="111"/>
-      <c r="B110" s="112"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="108">
+      <c r="A110" s="87"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="84">
         <v>178</v>
       </c>
       <c r="E110" s="39"/>
@@ -4971,16 +4971,16 @@
       <c r="M110" s="36"/>
     </row>
     <row r="111" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A111" s="111">
+      <c r="A111" s="87">
         <v>108030</v>
       </c>
-      <c r="B111" s="112">
+      <c r="B111" s="88">
         <v>190805267</v>
       </c>
-      <c r="C111" s="113" t="s">
+      <c r="C111" s="89" t="s">
         <v>320</v>
       </c>
-      <c r="D111" s="115">
+      <c r="D111" s="91">
         <v>2</v>
       </c>
       <c r="E111" s="39"/>
@@ -4988,16 +4988,16 @@
       <c r="M111" s="36"/>
     </row>
     <row r="112" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A112" s="112" t="s">
+      <c r="A112" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="112">
+      <c r="B112" s="88">
         <v>190805268</v>
       </c>
-      <c r="C112" s="113" t="s">
+      <c r="C112" s="89" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="115">
+      <c r="D112" s="91">
         <v>1</v>
       </c>
       <c r="E112" s="39"/>
@@ -5005,16 +5005,16 @@
       <c r="M112" s="36"/>
     </row>
     <row r="113" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A113" s="112" t="s">
+      <c r="A113" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="B113" s="112">
+      <c r="B113" s="88">
         <v>190805269</v>
       </c>
-      <c r="C113" s="113" t="s">
+      <c r="C113" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="115">
+      <c r="D113" s="91">
         <v>2</v>
       </c>
       <c r="E113" s="39"/>
@@ -5022,16 +5022,16 @@
       <c r="M113" s="36"/>
     </row>
     <row r="114" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A114" s="111">
+      <c r="A114" s="87">
         <v>108045</v>
       </c>
-      <c r="B114" s="112">
+      <c r="B114" s="88">
         <v>190805270</v>
       </c>
-      <c r="C114" s="113" t="s">
+      <c r="C114" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="D114" s="115">
+      <c r="D114" s="91">
         <v>2</v>
       </c>
       <c r="E114" s="39"/>
@@ -5039,16 +5039,16 @@
       <c r="M114" s="36"/>
     </row>
     <row r="115" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A115" s="112" t="s">
+      <c r="A115" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="B115" s="112" t="s">
+      <c r="B115" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="C115" s="113" t="s">
+      <c r="C115" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="D115" s="115">
+      <c r="D115" s="91">
         <v>1</v>
       </c>
       <c r="E115" s="39"/>
@@ -5056,16 +5056,16 @@
       <c r="M115" s="36"/>
     </row>
     <row r="116" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A116" s="111">
+      <c r="A116" s="87">
         <v>108055</v>
       </c>
-      <c r="B116" s="112">
+      <c r="B116" s="88">
         <v>190805272</v>
       </c>
-      <c r="C116" s="113" t="s">
+      <c r="C116" s="89" t="s">
         <v>325</v>
       </c>
-      <c r="D116" s="115">
+      <c r="D116" s="91">
         <v>2</v>
       </c>
       <c r="E116" s="39"/>
@@ -5073,16 +5073,16 @@
       <c r="M116" s="36"/>
     </row>
     <row r="117" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A117" s="111">
+      <c r="A117" s="87">
         <v>108060</v>
       </c>
-      <c r="B117" s="112">
+      <c r="B117" s="88">
         <v>190805273</v>
       </c>
-      <c r="C117" s="113" t="s">
+      <c r="C117" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="D117" s="115">
+      <c r="D117" s="91">
         <v>2</v>
       </c>
       <c r="E117" s="39"/>
@@ -5090,16 +5090,16 @@
       <c r="M117" s="36"/>
     </row>
     <row r="118" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A118" s="112" t="s">
+      <c r="A118" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B118" s="112" t="s">
+      <c r="B118" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="113" t="s">
+      <c r="C118" s="89" t="s">
         <v>327</v>
       </c>
-      <c r="D118" s="115">
+      <c r="D118" s="91">
         <v>1</v>
       </c>
       <c r="E118" s="39"/>
@@ -5107,16 +5107,16 @@
       <c r="M118" s="36"/>
     </row>
     <row r="119" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A119" s="111">
+      <c r="A119" s="87">
         <v>109070</v>
       </c>
-      <c r="B119" s="112">
+      <c r="B119" s="88">
         <v>190805275</v>
       </c>
-      <c r="C119" s="113" t="s">
+      <c r="C119" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="D119" s="115">
+      <c r="D119" s="91">
         <v>2</v>
       </c>
       <c r="E119" s="39"/>
@@ -5124,16 +5124,16 @@
       <c r="M119" s="36"/>
     </row>
     <row r="120" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A120" s="112" t="s">
+      <c r="A120" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="112">
+      <c r="B120" s="88">
         <v>210632486</v>
       </c>
-      <c r="C120" s="113" t="s">
+      <c r="C120" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="D120" s="115">
+      <c r="D120" s="91">
         <v>2</v>
       </c>
       <c r="E120" s="39"/>
@@ -5141,16 +5141,16 @@
       <c r="M120" s="36"/>
     </row>
     <row r="121" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A121" s="111">
+      <c r="A121" s="87">
         <v>108080</v>
       </c>
-      <c r="B121" s="112">
+      <c r="B121" s="88">
         <v>190805277</v>
       </c>
-      <c r="C121" s="113" t="s">
+      <c r="C121" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="D121" s="115">
+      <c r="D121" s="91">
         <v>2</v>
       </c>
       <c r="E121" s="39"/>
@@ -5158,16 +5158,16 @@
       <c r="M121" s="36"/>
     </row>
     <row r="122" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A122" s="111">
+      <c r="A122" s="87">
         <v>108085</v>
       </c>
-      <c r="B122" s="112">
+      <c r="B122" s="88">
         <v>190805278</v>
       </c>
-      <c r="C122" s="113" t="s">
+      <c r="C122" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="D122" s="115">
+      <c r="D122" s="91">
         <v>1</v>
       </c>
       <c r="E122" s="39"/>
@@ -5175,16 +5175,16 @@
       <c r="M122" s="36"/>
     </row>
     <row r="123" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A123" s="111">
+      <c r="A123" s="87">
         <v>108090</v>
       </c>
-      <c r="B123" s="112">
+      <c r="B123" s="88">
         <v>190805279</v>
       </c>
-      <c r="C123" s="113" t="s">
+      <c r="C123" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="D123" s="115">
+      <c r="D123" s="91">
         <v>0</v>
       </c>
       <c r="E123" s="39"/>
@@ -5192,16 +5192,16 @@
       <c r="M123" s="36"/>
     </row>
     <row r="124" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A124" s="111">
+      <c r="A124" s="87">
         <v>108095</v>
       </c>
-      <c r="B124" s="112">
+      <c r="B124" s="88">
         <v>190805280</v>
       </c>
-      <c r="C124" s="113" t="s">
+      <c r="C124" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="D124" s="115">
+      <c r="D124" s="91">
         <v>3</v>
       </c>
       <c r="E124" s="39"/>
@@ -5209,16 +5209,16 @@
       <c r="M124" s="36"/>
     </row>
     <row r="125" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A125" s="112" t="s">
+      <c r="A125" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="B125" s="112" t="s">
+      <c r="B125" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="C125" s="113" t="s">
+      <c r="C125" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="D125" s="115">
+      <c r="D125" s="91">
         <v>0</v>
       </c>
       <c r="E125" s="39"/>
@@ -5226,10 +5226,10 @@
       <c r="M125" s="36"/>
     </row>
     <row r="126" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A126" s="112"/>
-      <c r="B126" s="112"/>
-      <c r="C126" s="113"/>
-      <c r="D126" s="123">
+      <c r="A126" s="88"/>
+      <c r="B126" s="88"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="99">
         <v>23</v>
       </c>
       <c r="E126" s="39"/>
@@ -5237,16 +5237,16 @@
       <c r="M126" s="36"/>
     </row>
     <row r="127" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A127" s="111" t="s">
+      <c r="A127" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="B127" s="112" t="s">
+      <c r="B127" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="C127" s="113" t="s">
+      <c r="C127" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="D127" s="112">
+      <c r="D127" s="88">
         <v>0</v>
       </c>
       <c r="E127" s="39"/>
@@ -5254,16 +5254,16 @@
       <c r="M127" s="36"/>
     </row>
     <row r="128" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A128" s="111" t="s">
+      <c r="A128" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="B128" s="112" t="s">
+      <c r="B128" s="88" t="s">
         <v>239</v>
       </c>
-      <c r="C128" s="113" t="s">
+      <c r="C128" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="D128" s="112">
+      <c r="D128" s="88">
         <v>0</v>
       </c>
       <c r="E128" s="39"/>
@@ -5271,16 +5271,16 @@
       <c r="M128" s="36"/>
     </row>
     <row r="129" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A129" s="111" t="s">
+      <c r="A129" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="B129" s="112" t="s">
+      <c r="B129" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="C129" s="113" t="s">
+      <c r="C129" s="89" t="s">
         <v>337</v>
       </c>
-      <c r="D129" s="112">
+      <c r="D129" s="88">
         <v>1</v>
       </c>
       <c r="E129" s="39"/>
@@ -5288,16 +5288,16 @@
       <c r="M129" s="36"/>
     </row>
     <row r="130" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A130" s="111">
+      <c r="A130" s="87">
         <v>110045</v>
       </c>
-      <c r="B130" s="112">
+      <c r="B130" s="88">
         <v>190805263</v>
       </c>
-      <c r="C130" s="113" t="s">
+      <c r="C130" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="D130" s="112">
+      <c r="D130" s="88">
         <v>0</v>
       </c>
       <c r="E130" s="39"/>
@@ -5305,16 +5305,16 @@
       <c r="M130" s="36"/>
     </row>
     <row r="131" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A131" s="111">
+      <c r="A131" s="87">
         <v>110050</v>
       </c>
-      <c r="B131" s="112">
+      <c r="B131" s="88">
         <v>190805264</v>
       </c>
-      <c r="C131" s="113" t="s">
+      <c r="C131" s="89" t="s">
         <v>339</v>
       </c>
-      <c r="D131" s="112">
+      <c r="D131" s="88">
         <v>1</v>
       </c>
       <c r="E131" s="39"/>
@@ -5322,16 +5322,16 @@
       <c r="M131" s="36"/>
     </row>
     <row r="132" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A132" s="111">
+      <c r="A132" s="87">
         <v>110055</v>
       </c>
-      <c r="B132" s="112" t="s">
+      <c r="B132" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="C132" s="113" t="s">
+      <c r="C132" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="D132" s="112">
+      <c r="D132" s="88">
         <v>0</v>
       </c>
       <c r="E132" s="39"/>
@@ -5339,16 +5339,16 @@
       <c r="M132" s="36"/>
     </row>
     <row r="133" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A133" s="111" t="s">
+      <c r="A133" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="B133" s="112" t="s">
+      <c r="B133" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="C133" s="113" t="s">
+      <c r="C133" s="89" t="s">
         <v>341</v>
       </c>
-      <c r="D133" s="112">
+      <c r="D133" s="88">
         <v>0</v>
       </c>
       <c r="E133" s="39"/>
@@ -5356,16 +5356,16 @@
       <c r="M133" s="36"/>
     </row>
     <row r="134" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A134" s="111" t="s">
+      <c r="A134" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="B134" s="112" t="s">
+      <c r="B134" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C134" s="113" t="s">
+      <c r="C134" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="D134" s="112">
+      <c r="D134" s="88">
         <v>1</v>
       </c>
       <c r="E134" s="39"/>
@@ -5373,16 +5373,16 @@
       <c r="M134" s="36"/>
     </row>
     <row r="135" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A135" s="111" t="s">
+      <c r="A135" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B135" s="112" t="s">
+      <c r="B135" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="C135" s="113" t="s">
+      <c r="C135" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="D135" s="112">
+      <c r="D135" s="88">
         <v>0</v>
       </c>
       <c r="E135" s="39"/>
@@ -5390,16 +5390,16 @@
       <c r="M135" s="36"/>
     </row>
     <row r="136" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A136" s="111" t="s">
+      <c r="A136" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="B136" s="112" t="s">
+      <c r="B136" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="C136" s="113" t="s">
+      <c r="C136" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="D136" s="112">
+      <c r="D136" s="88">
         <v>0</v>
       </c>
       <c r="E136" s="39"/>
@@ -5407,16 +5407,16 @@
       <c r="M136" s="36"/>
     </row>
     <row r="137" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A137" s="111" t="s">
+      <c r="A137" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="B137" s="112" t="s">
+      <c r="B137" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="C137" s="113" t="s">
+      <c r="C137" s="89" t="s">
         <v>345</v>
       </c>
-      <c r="D137" s="112">
+      <c r="D137" s="88">
         <v>0</v>
       </c>
       <c r="E137" s="39"/>
@@ -5424,16 +5424,16 @@
       <c r="M137" s="36"/>
     </row>
     <row r="138" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A138" s="111" t="s">
+      <c r="A138" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="B138" s="112" t="s">
+      <c r="B138" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="C138" s="113" t="s">
+      <c r="C138" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="D138" s="112">
+      <c r="D138" s="88">
         <v>1</v>
       </c>
       <c r="E138" s="39"/>
@@ -5441,16 +5441,16 @@
       <c r="M138" s="36"/>
     </row>
     <row r="139" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A139" s="111" t="s">
+      <c r="A139" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="B139" s="112" t="s">
+      <c r="B139" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="C139" s="113" t="s">
+      <c r="C139" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="D139" s="112">
+      <c r="D139" s="88">
         <v>0</v>
       </c>
       <c r="E139" s="39"/>
@@ -5458,16 +5458,16 @@
       <c r="M139" s="36"/>
     </row>
     <row r="140" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A140" s="111" t="s">
+      <c r="A140" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="B140" s="112" t="s">
+      <c r="B140" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="C140" s="113" t="s">
+      <c r="C140" s="89" t="s">
         <v>348</v>
       </c>
-      <c r="D140" s="112">
+      <c r="D140" s="88">
         <v>0</v>
       </c>
       <c r="E140" s="39"/>
@@ -5475,16 +5475,16 @@
       <c r="M140" s="36"/>
     </row>
     <row r="141" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A141" s="111" t="s">
+      <c r="A141" s="87" t="s">
         <v>250</v>
       </c>
-      <c r="B141" s="112" t="s">
+      <c r="B141" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="C141" s="113" t="s">
+      <c r="C141" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="D141" s="112">
+      <c r="D141" s="88">
         <v>0</v>
       </c>
       <c r="E141" s="39"/>
@@ -5492,10 +5492,10 @@
       <c r="M141" s="36"/>
     </row>
     <row r="142" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A142" s="111"/>
-      <c r="B142" s="112"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="124">
+      <c r="A142" s="87"/>
+      <c r="B142" s="88"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="100">
         <v>4</v>
       </c>
       <c r="E142" s="39"/>
@@ -5503,308 +5503,308 @@
       <c r="M142" s="36"/>
     </row>
     <row r="143" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A143" s="111" t="s">
+      <c r="A143" s="87" t="s">
         <v>251</v>
       </c>
-      <c r="B143" s="112" t="s">
+      <c r="B143" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="C143" s="113" t="s">
+      <c r="C143" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="D143" s="112">
+      <c r="D143" s="88">
         <v>4</v>
       </c>
       <c r="E143" s="39"/>
       <c r="L143" s="36"/>
       <c r="M143" s="36"/>
     </row>
-    <row r="144" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A144" s="111"/>
-      <c r="B144" s="112"/>
-      <c r="C144" s="113"/>
-      <c r="D144" s="112"/>
-      <c r="E144" s="109"/>
-      <c r="L144" s="86"/>
-      <c r="M144" s="86"/>
-    </row>
-    <row r="145" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A145" s="131" t="s">
+    <row r="144" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A144" s="87"/>
+      <c r="B144" s="88"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="88"/>
+      <c r="E144" s="85"/>
+      <c r="L144" s="62"/>
+      <c r="M144" s="62"/>
+    </row>
+    <row r="145" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A145" s="107" t="s">
         <v>350</v>
       </c>
-      <c r="B145" s="132">
+      <c r="B145" s="108">
         <v>190703816</v>
       </c>
-      <c r="C145" s="133" t="s">
+      <c r="C145" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="D145" s="126">
+      <c r="D145" s="102">
         <v>3</v>
       </c>
-      <c r="E145" s="109"/>
-      <c r="L145" s="86"/>
-      <c r="M145" s="86"/>
-    </row>
-    <row r="146" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A146" s="131" t="s">
+      <c r="E145" s="85"/>
+      <c r="L145" s="62"/>
+      <c r="M145" s="62"/>
+    </row>
+    <row r="146" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A146" s="107" t="s">
         <v>352</v>
       </c>
-      <c r="B146" s="132">
+      <c r="B146" s="108">
         <v>190703816</v>
       </c>
-      <c r="C146" s="133" t="s">
+      <c r="C146" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="D146" s="126">
-        <v>1</v>
-      </c>
-      <c r="E146" s="109"/>
-      <c r="L146" s="86"/>
-      <c r="M146" s="86"/>
-    </row>
-    <row r="147" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A147" s="131" t="s">
+      <c r="D146" s="102">
+        <v>1</v>
+      </c>
+      <c r="E146" s="85"/>
+      <c r="L146" s="62"/>
+      <c r="M146" s="62"/>
+    </row>
+    <row r="147" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A147" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="B147" s="132">
+      <c r="B147" s="108">
         <v>190703814</v>
       </c>
-      <c r="C147" s="133" t="s">
+      <c r="C147" s="109" t="s">
         <v>355</v>
       </c>
-      <c r="D147" s="126">
+      <c r="D147" s="102">
         <v>4</v>
       </c>
-      <c r="E147" s="109"/>
-      <c r="L147" s="86"/>
-      <c r="M147" s="86"/>
-    </row>
-    <row r="148" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A148" s="134" t="s">
+      <c r="E147" s="85"/>
+      <c r="L147" s="62"/>
+      <c r="M147" s="62"/>
+    </row>
+    <row r="148" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A148" s="110" t="s">
         <v>356</v>
       </c>
-      <c r="B148" s="134">
+      <c r="B148" s="110">
         <v>190703812</v>
       </c>
-      <c r="C148" s="127" t="s">
+      <c r="C148" s="103" t="s">
         <v>357</v>
       </c>
-      <c r="D148" s="126">
+      <c r="D148" s="102">
         <v>4</v>
       </c>
-      <c r="E148" s="109"/>
-      <c r="L148" s="86"/>
-      <c r="M148" s="86"/>
-    </row>
-    <row r="149" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A149" s="134" t="s">
+      <c r="E148" s="85"/>
+      <c r="L148" s="62"/>
+      <c r="M148" s="62"/>
+    </row>
+    <row r="149" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A149" s="110" t="s">
         <v>358</v>
       </c>
-      <c r="B149" s="134">
+      <c r="B149" s="110">
         <v>190703812</v>
       </c>
-      <c r="C149" s="127" t="s">
+      <c r="C149" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="D149" s="126">
+      <c r="D149" s="102">
         <v>4</v>
       </c>
-      <c r="E149" s="109"/>
-      <c r="L149" s="86"/>
-      <c r="M149" s="86"/>
-    </row>
-    <row r="150" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A150" s="134" t="s">
+      <c r="E149" s="85"/>
+      <c r="L149" s="62"/>
+      <c r="M149" s="62"/>
+    </row>
+    <row r="150" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A150" s="110" t="s">
         <v>360</v>
       </c>
-      <c r="B150" s="134">
+      <c r="B150" s="110">
         <v>190703808</v>
       </c>
-      <c r="C150" s="127" t="s">
+      <c r="C150" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="D150" s="126">
+      <c r="D150" s="102">
         <v>4</v>
       </c>
-      <c r="E150" s="109"/>
-      <c r="L150" s="86"/>
-      <c r="M150" s="86"/>
-    </row>
-    <row r="151" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A151" s="134" t="s">
+      <c r="E150" s="85"/>
+      <c r="L150" s="62"/>
+      <c r="M150" s="62"/>
+    </row>
+    <row r="151" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A151" s="110" t="s">
         <v>362</v>
       </c>
-      <c r="B151" s="134">
+      <c r="B151" s="110">
         <v>190703807</v>
       </c>
-      <c r="C151" s="127" t="s">
+      <c r="C151" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="D151" s="126">
+      <c r="D151" s="102">
         <v>4</v>
       </c>
-      <c r="E151" s="109"/>
-      <c r="L151" s="86"/>
-      <c r="M151" s="86"/>
-    </row>
-    <row r="152" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A152" s="134" t="s">
+      <c r="E151" s="85"/>
+      <c r="L151" s="62"/>
+      <c r="M151" s="62"/>
+    </row>
+    <row r="152" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A152" s="110" t="s">
         <v>364</v>
       </c>
-      <c r="B152" s="134">
+      <c r="B152" s="110">
         <v>190805269</v>
       </c>
-      <c r="C152" s="127" t="s">
+      <c r="C152" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="D152" s="126">
+      <c r="D152" s="102">
         <v>4</v>
       </c>
-      <c r="E152" s="109"/>
-      <c r="L152" s="86"/>
-      <c r="M152" s="86"/>
-    </row>
-    <row r="153" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A153" s="134" t="s">
+      <c r="E152" s="85"/>
+      <c r="L152" s="62"/>
+      <c r="M152" s="62"/>
+    </row>
+    <row r="153" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A153" s="110" t="s">
         <v>366</v>
       </c>
-      <c r="B153" s="134">
+      <c r="B153" s="110">
         <v>190805271</v>
       </c>
-      <c r="C153" s="127" t="s">
+      <c r="C153" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="D153" s="126">
+      <c r="D153" s="102">
         <v>4</v>
       </c>
-      <c r="E153" s="109"/>
-      <c r="L153" s="86"/>
-      <c r="M153" s="86"/>
-    </row>
-    <row r="154" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A154" s="134" t="s">
+      <c r="E153" s="85"/>
+      <c r="L153" s="62"/>
+      <c r="M153" s="62"/>
+    </row>
+    <row r="154" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A154" s="110" t="s">
         <v>368</v>
       </c>
-      <c r="B154" s="134">
+      <c r="B154" s="110">
         <v>190805272</v>
       </c>
-      <c r="C154" s="127" t="s">
+      <c r="C154" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="D154" s="126">
+      <c r="D154" s="102">
         <v>5</v>
       </c>
-      <c r="E154" s="109"/>
-      <c r="L154" s="86"/>
-      <c r="M154" s="86"/>
-    </row>
-    <row r="155" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A155" s="134" t="s">
+      <c r="E154" s="85"/>
+      <c r="L154" s="62"/>
+      <c r="M154" s="62"/>
+    </row>
+    <row r="155" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A155" s="110" t="s">
         <v>370</v>
       </c>
-      <c r="B155" s="134">
+      <c r="B155" s="110">
         <v>190805273</v>
       </c>
-      <c r="C155" s="127" t="s">
+      <c r="C155" s="103" t="s">
         <v>371</v>
       </c>
-      <c r="D155" s="126">
+      <c r="D155" s="102">
         <v>5</v>
       </c>
-      <c r="E155" s="109"/>
-      <c r="L155" s="86"/>
-      <c r="M155" s="86"/>
-    </row>
-    <row r="156" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A156" s="134" t="s">
+      <c r="E155" s="85"/>
+      <c r="L155" s="62"/>
+      <c r="M155" s="62"/>
+    </row>
+    <row r="156" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A156" s="110" t="s">
         <v>372</v>
       </c>
-      <c r="B156" s="134">
+      <c r="B156" s="110">
         <v>200214385</v>
       </c>
-      <c r="C156" s="127" t="s">
+      <c r="C156" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="D156" s="126">
+      <c r="D156" s="102">
         <v>5</v>
       </c>
-      <c r="E156" s="109"/>
-      <c r="L156" s="86"/>
-      <c r="M156" s="86"/>
-    </row>
-    <row r="157" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A157" s="134" t="s">
+      <c r="E156" s="85"/>
+      <c r="L156" s="62"/>
+      <c r="M156" s="62"/>
+    </row>
+    <row r="157" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A157" s="110" t="s">
         <v>374</v>
       </c>
-      <c r="B157" s="134">
+      <c r="B157" s="110">
         <v>190805275</v>
       </c>
-      <c r="C157" s="127" t="s">
+      <c r="C157" s="103" t="s">
         <v>375</v>
       </c>
-      <c r="D157" s="126">
+      <c r="D157" s="102">
         <v>4</v>
       </c>
-      <c r="E157" s="109"/>
-      <c r="L157" s="86"/>
-      <c r="M157" s="86"/>
-    </row>
-    <row r="158" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A158" s="134" t="s">
+      <c r="E157" s="85"/>
+      <c r="L157" s="62"/>
+      <c r="M157" s="62"/>
+    </row>
+    <row r="158" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A158" s="110" t="s">
         <v>376</v>
       </c>
-      <c r="B158" s="134">
+      <c r="B158" s="110">
         <v>190805276</v>
       </c>
-      <c r="C158" s="127" t="s">
+      <c r="C158" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="D158" s="126">
+      <c r="D158" s="102">
         <v>3</v>
       </c>
-      <c r="E158" s="109"/>
-      <c r="L158" s="86"/>
-      <c r="M158" s="86"/>
-    </row>
-    <row r="159" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A159" s="134" t="s">
+      <c r="E158" s="85"/>
+      <c r="L158" s="62"/>
+      <c r="M158" s="62"/>
+    </row>
+    <row r="159" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A159" s="110" t="s">
         <v>378</v>
       </c>
-      <c r="B159" s="134" t="s">
+      <c r="B159" s="110" t="s">
         <v>379</v>
       </c>
-      <c r="C159" s="127" t="s">
+      <c r="C159" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="D159" s="126">
-        <v>1</v>
-      </c>
-      <c r="E159" s="109"/>
-      <c r="L159" s="86"/>
-      <c r="M159" s="86"/>
-    </row>
-    <row r="160" spans="1:13" s="107" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A160" s="134" t="s">
+      <c r="D159" s="102">
+        <v>1</v>
+      </c>
+      <c r="E159" s="85"/>
+      <c r="L159" s="62"/>
+      <c r="M159" s="62"/>
+    </row>
+    <row r="160" spans="1:13" s="83" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A160" s="110" t="s">
         <v>381</v>
       </c>
-      <c r="B160" s="134" t="s">
+      <c r="B160" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="127" t="s">
+      <c r="C160" s="103" t="s">
         <v>382</v>
       </c>
-      <c r="D160" s="126">
+      <c r="D160" s="102">
         <v>0</v>
       </c>
-      <c r="E160" s="109"/>
-      <c r="L160" s="86"/>
-      <c r="M160" s="86"/>
+      <c r="E160" s="85"/>
+      <c r="L160" s="62"/>
+      <c r="M160" s="62"/>
     </row>
     <row r="161" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A161" s="134"/>
-      <c r="B161" s="134"/>
-      <c r="C161" s="127"/>
-      <c r="D161" s="130">
+      <c r="A161" s="110"/>
+      <c r="B161" s="110"/>
+      <c r="C161" s="103"/>
+      <c r="D161" s="106">
         <v>55</v>
       </c>
       <c r="E161" s="39"/>
@@ -5812,16 +5812,16 @@
       <c r="M161" s="36"/>
     </row>
     <row r="162" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A162" s="135" t="s">
+      <c r="A162" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="B162" s="135" t="s">
+      <c r="B162" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="C162" s="136" t="s">
+      <c r="C162" s="112" t="s">
         <v>383</v>
       </c>
-      <c r="D162" s="126">
+      <c r="D162" s="102">
         <v>5</v>
       </c>
       <c r="E162" s="39"/>
@@ -5871,362 +5871,362 @@
       <c r="M167" s="36"/>
     </row>
     <row r="168" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="B168" s="73" t="s">
+      <c r="B168" s="163" t="s">
         <v>109</v>
       </c>
-      <c r="C168" s="74"/>
+      <c r="C168" s="164"/>
       <c r="L168" s="36"/>
       <c r="M168" s="36"/>
     </row>
     <row r="169" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="B169" s="100" t="s">
+      <c r="B169" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C169" s="101" t="s">
+      <c r="C169" s="77" t="s">
         <v>111</v>
       </c>
       <c r="L169" s="36"/>
       <c r="M169" s="36"/>
     </row>
     <row r="170" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="B170" s="102"/>
-      <c r="C170" s="105" t="s">
+      <c r="B170" s="78"/>
+      <c r="C170" s="81" t="s">
         <v>112</v>
       </c>
       <c r="L170" s="36"/>
       <c r="M170" s="36"/>
     </row>
     <row r="171" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="B171" s="102">
-        <v>1</v>
-      </c>
-      <c r="C171" s="106" t="s">
+      <c r="B171" s="78">
+        <v>1</v>
+      </c>
+      <c r="C171" s="82" t="s">
         <v>113</v>
       </c>
       <c r="L171" s="36"/>
       <c r="M171" s="36"/>
     </row>
     <row r="172" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="B172" s="102">
-        <v>1</v>
-      </c>
-      <c r="C172" s="106" t="s">
+      <c r="B172" s="78">
+        <v>1</v>
+      </c>
+      <c r="C172" s="82" t="s">
         <v>114</v>
       </c>
       <c r="L172" s="36"/>
       <c r="M172" s="36"/>
     </row>
     <row r="173" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="B173" s="102">
-        <v>1</v>
-      </c>
-      <c r="C173" s="106" t="s">
+      <c r="B173" s="78">
+        <v>1</v>
+      </c>
+      <c r="C173" s="82" t="s">
         <v>115</v>
       </c>
       <c r="L173" s="36"/>
       <c r="M173" s="36"/>
     </row>
     <row r="174" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="B174" s="102">
-        <v>1</v>
-      </c>
-      <c r="C174" s="106" t="s">
+      <c r="B174" s="78">
+        <v>1</v>
+      </c>
+      <c r="C174" s="82" t="s">
         <v>116</v>
       </c>
       <c r="L174" s="36"/>
       <c r="M174" s="36"/>
     </row>
     <row r="175" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="B175" s="102">
-        <v>1</v>
-      </c>
-      <c r="C175" s="106" t="s">
+      <c r="B175" s="78">
+        <v>1</v>
+      </c>
+      <c r="C175" s="82" t="s">
         <v>117</v>
       </c>
       <c r="L175" s="36"/>
       <c r="M175" s="36"/>
     </row>
     <row r="176" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="B176" s="102">
-        <v>1</v>
-      </c>
-      <c r="C176" s="106" t="s">
+      <c r="B176" s="78">
+        <v>1</v>
+      </c>
+      <c r="C176" s="82" t="s">
         <v>118</v>
       </c>
       <c r="L176" s="36"/>
       <c r="M176" s="36"/>
     </row>
     <row r="177" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B177" s="102">
-        <v>1</v>
-      </c>
-      <c r="C177" s="106" t="s">
+      <c r="B177" s="78">
+        <v>1</v>
+      </c>
+      <c r="C177" s="82" t="s">
         <v>119</v>
       </c>
       <c r="L177" s="36"/>
       <c r="M177" s="36"/>
     </row>
     <row r="178" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B178" s="102">
-        <v>1</v>
-      </c>
-      <c r="C178" s="106" t="s">
+      <c r="B178" s="78">
+        <v>1</v>
+      </c>
+      <c r="C178" s="82" t="s">
         <v>120</v>
       </c>
       <c r="L178" s="36"/>
       <c r="M178" s="36"/>
     </row>
     <row r="179" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B179" s="102">
+      <c r="B179" s="78">
         <v>2</v>
       </c>
-      <c r="C179" s="106" t="s">
+      <c r="C179" s="82" t="s">
         <v>121</v>
       </c>
       <c r="L179" s="36"/>
       <c r="M179" s="36"/>
     </row>
     <row r="180" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B180" s="102">
-        <v>1</v>
-      </c>
-      <c r="C180" s="106" t="s">
+      <c r="B180" s="78">
+        <v>1</v>
+      </c>
+      <c r="C180" s="82" t="s">
         <v>122</v>
       </c>
       <c r="L180" s="36"/>
       <c r="M180" s="36"/>
     </row>
     <row r="181" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B181" s="102">
-        <v>1</v>
-      </c>
-      <c r="C181" s="106" t="s">
+      <c r="B181" s="78">
+        <v>1</v>
+      </c>
+      <c r="C181" s="82" t="s">
         <v>123</v>
       </c>
       <c r="L181" s="36"/>
       <c r="M181" s="36"/>
     </row>
     <row r="182" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B182" s="102">
-        <v>1</v>
-      </c>
-      <c r="C182" s="106" t="s">
+      <c r="B182" s="78">
+        <v>1</v>
+      </c>
+      <c r="C182" s="82" t="s">
         <v>124</v>
       </c>
       <c r="L182" s="36"/>
       <c r="M182" s="36"/>
     </row>
     <row r="183" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B183" s="102">
-        <v>1</v>
-      </c>
-      <c r="C183" s="106" t="s">
+      <c r="B183" s="78">
+        <v>1</v>
+      </c>
+      <c r="C183" s="82" t="s">
         <v>125</v>
       </c>
       <c r="L183" s="36"/>
       <c r="M183" s="36"/>
     </row>
     <row r="184" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B184" s="102">
+      <c r="B184" s="78">
         <v>2</v>
       </c>
-      <c r="C184" s="106" t="s">
+      <c r="C184" s="82" t="s">
         <v>126</v>
       </c>
       <c r="L184" s="36"/>
       <c r="M184" s="36"/>
     </row>
     <row r="185" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B185" s="102">
-        <v>1</v>
-      </c>
-      <c r="C185" s="106" t="s">
+      <c r="B185" s="78">
+        <v>1</v>
+      </c>
+      <c r="C185" s="82" t="s">
         <v>127</v>
       </c>
       <c r="L185" s="36"/>
       <c r="M185" s="36"/>
     </row>
     <row r="186" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B186" s="102">
+      <c r="B186" s="78">
         <v>4</v>
       </c>
-      <c r="C186" s="106" t="s">
+      <c r="C186" s="82" t="s">
         <v>128</v>
       </c>
       <c r="L186" s="36"/>
       <c r="M186" s="36"/>
     </row>
     <row r="187" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B187" s="102">
+      <c r="B187" s="78">
         <v>2</v>
       </c>
-      <c r="C187" s="106" t="s">
+      <c r="C187" s="82" t="s">
         <v>129</v>
       </c>
       <c r="L187" s="36"/>
       <c r="M187" s="36"/>
     </row>
     <row r="188" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B188" s="115">
-        <v>1</v>
-      </c>
-      <c r="C188" s="103" t="s">
+      <c r="B188" s="91">
+        <v>1</v>
+      </c>
+      <c r="C188" s="79" t="s">
         <v>130</v>
       </c>
       <c r="L188" s="36"/>
       <c r="M188" s="36"/>
     </row>
     <row r="189" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B189" s="115">
-        <v>1</v>
-      </c>
-      <c r="C189" s="103" t="s">
+      <c r="B189" s="91">
+        <v>1</v>
+      </c>
+      <c r="C189" s="79" t="s">
         <v>131</v>
       </c>
       <c r="L189" s="36"/>
       <c r="M189" s="36"/>
     </row>
     <row r="190" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B190" s="102"/>
-      <c r="C190" s="106" t="s">
+      <c r="B190" s="78"/>
+      <c r="C190" s="82" t="s">
         <v>132</v>
       </c>
       <c r="L190" s="36"/>
       <c r="M190" s="36"/>
     </row>
     <row r="191" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B191" s="104">
+      <c r="B191" s="80">
         <f>SUM(B171:B190)</f>
         <v>25</v>
       </c>
-      <c r="C191" s="106"/>
+      <c r="C191" s="82"/>
       <c r="L191" s="36"/>
       <c r="M191" s="36"/>
     </row>
     <row r="192" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B192" s="102"/>
-      <c r="C192" s="105" t="s">
+      <c r="B192" s="78"/>
+      <c r="C192" s="81" t="s">
         <v>133</v>
       </c>
       <c r="L192" s="36"/>
       <c r="M192" s="36"/>
     </row>
     <row r="193" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B193" s="102">
-        <v>1</v>
-      </c>
-      <c r="C193" s="106" t="s">
+      <c r="B193" s="78">
+        <v>1</v>
+      </c>
+      <c r="C193" s="82" t="s">
         <v>134</v>
       </c>
       <c r="L193" s="36"/>
       <c r="M193" s="36"/>
     </row>
     <row r="194" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B194" s="102">
-        <v>1</v>
-      </c>
-      <c r="C194" s="106" t="s">
+      <c r="B194" s="78">
+        <v>1</v>
+      </c>
+      <c r="C194" s="82" t="s">
         <v>135</v>
       </c>
       <c r="L194" s="36"/>
       <c r="M194" s="36"/>
     </row>
     <row r="195" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B195" s="102">
-        <v>1</v>
-      </c>
-      <c r="C195" s="106" t="s">
+      <c r="B195" s="78">
+        <v>1</v>
+      </c>
+      <c r="C195" s="82" t="s">
         <v>136</v>
       </c>
       <c r="L195" s="36"/>
       <c r="M195" s="36"/>
     </row>
     <row r="196" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B196" s="102">
-        <v>1</v>
-      </c>
-      <c r="C196" s="106" t="s">
+      <c r="B196" s="78">
+        <v>1</v>
+      </c>
+      <c r="C196" s="82" t="s">
         <v>137</v>
       </c>
       <c r="L196" s="36"/>
       <c r="M196" s="36"/>
     </row>
     <row r="197" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B197" s="102">
-        <v>1</v>
-      </c>
-      <c r="C197" s="106" t="s">
+      <c r="B197" s="78">
+        <v>1</v>
+      </c>
+      <c r="C197" s="82" t="s">
         <v>138</v>
       </c>
       <c r="L197" s="36"/>
       <c r="M197" s="36"/>
     </row>
     <row r="198" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B198" s="102">
-        <v>1</v>
-      </c>
-      <c r="C198" s="106" t="s">
+      <c r="B198" s="78">
+        <v>1</v>
+      </c>
+      <c r="C198" s="82" t="s">
         <v>139</v>
       </c>
       <c r="L198" s="36"/>
       <c r="M198" s="36"/>
     </row>
     <row r="199" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B199" s="102">
-        <v>1</v>
-      </c>
-      <c r="C199" s="106" t="s">
+      <c r="B199" s="78">
+        <v>1</v>
+      </c>
+      <c r="C199" s="82" t="s">
         <v>140</v>
       </c>
       <c r="L199" s="36"/>
       <c r="M199" s="36"/>
     </row>
     <row r="200" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B200" s="102">
-        <v>1</v>
-      </c>
-      <c r="C200" s="106" t="s">
+      <c r="B200" s="78">
+        <v>1</v>
+      </c>
+      <c r="C200" s="82" t="s">
         <v>141</v>
       </c>
       <c r="L200" s="36"/>
       <c r="M200" s="36"/>
     </row>
     <row r="201" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B201" s="102">
-        <v>1</v>
-      </c>
-      <c r="C201" s="106" t="s">
+      <c r="B201" s="78">
+        <v>1</v>
+      </c>
+      <c r="C201" s="82" t="s">
         <v>142</v>
       </c>
       <c r="L201" s="36"/>
       <c r="M201" s="36"/>
     </row>
     <row r="202" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B202" s="102">
-        <v>1</v>
-      </c>
-      <c r="C202" s="106" t="s">
+      <c r="B202" s="78">
+        <v>1</v>
+      </c>
+      <c r="C202" s="82" t="s">
         <v>143</v>
       </c>
       <c r="L202" s="36"/>
       <c r="M202" s="36"/>
     </row>
     <row r="203" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B203" s="102">
-        <v>1</v>
-      </c>
-      <c r="C203" s="106" t="s">
+      <c r="B203" s="78">
+        <v>1</v>
+      </c>
+      <c r="C203" s="82" t="s">
         <v>144</v>
       </c>
       <c r="L203" s="36"/>
       <c r="M203" s="36"/>
     </row>
     <row r="204" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B204" s="104">
+      <c r="B204" s="80">
         <f>SUM(B193:B203)</f>
         <v>11</v>
       </c>
-      <c r="C204" s="106"/>
+      <c r="C204" s="82"/>
       <c r="L204" s="36"/>
       <c r="M204" s="36"/>
     </row>
@@ -6236,421 +6236,421 @@
       <c r="L205" s="36"/>
       <c r="M205" s="36"/>
     </row>
-    <row r="206" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B206" s="142"/>
-      <c r="C206" s="142" t="s">
+    <row r="206" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B206" s="118"/>
+      <c r="C206" s="118" t="s">
         <v>384</v>
       </c>
-      <c r="D206" s="128"/>
-      <c r="E206" s="128"/>
-      <c r="L206" s="129"/>
-      <c r="M206" s="129"/>
-    </row>
-    <row r="207" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B207" s="145" t="s">
+      <c r="D206" s="104"/>
+      <c r="E206" s="104"/>
+      <c r="L206" s="105"/>
+      <c r="M206" s="105"/>
+    </row>
+    <row r="207" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B207" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="C207" s="145" t="s">
+      <c r="C207" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="D207" s="128"/>
-      <c r="E207" s="128"/>
-      <c r="L207" s="129"/>
-      <c r="M207" s="129"/>
-    </row>
-    <row r="208" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B208" s="146"/>
-      <c r="C208" s="145" t="s">
+      <c r="D207" s="104"/>
+      <c r="E207" s="104"/>
+      <c r="L207" s="105"/>
+      <c r="M207" s="105"/>
+    </row>
+    <row r="208" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B208" s="122"/>
+      <c r="C208" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="D208" s="128"/>
-      <c r="E208" s="128"/>
-      <c r="L208" s="129"/>
-      <c r="M208" s="129"/>
-    </row>
-    <row r="209" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B209" s="144">
-        <v>1</v>
-      </c>
-      <c r="C209" s="143" t="s">
+      <c r="D208" s="104"/>
+      <c r="E208" s="104"/>
+      <c r="L208" s="105"/>
+      <c r="M208" s="105"/>
+    </row>
+    <row r="209" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B209" s="120">
+        <v>1</v>
+      </c>
+      <c r="C209" s="119" t="s">
         <v>385</v>
       </c>
-      <c r="D209" s="128"/>
-      <c r="E209" s="128"/>
-      <c r="L209" s="129"/>
-      <c r="M209" s="129"/>
-    </row>
-    <row r="210" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B210" s="144">
-        <v>1</v>
-      </c>
-      <c r="C210" s="143" t="s">
+      <c r="D209" s="104"/>
+      <c r="E209" s="104"/>
+      <c r="L209" s="105"/>
+      <c r="M209" s="105"/>
+    </row>
+    <row r="210" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B210" s="120">
+        <v>1</v>
+      </c>
+      <c r="C210" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="D210" s="128"/>
-      <c r="E210" s="128"/>
-      <c r="L210" s="129"/>
-      <c r="M210" s="129"/>
-    </row>
-    <row r="211" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B211" s="144">
+      <c r="D210" s="104"/>
+      <c r="E210" s="104"/>
+      <c r="L210" s="105"/>
+      <c r="M210" s="105"/>
+    </row>
+    <row r="211" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B211" s="120">
         <v>2</v>
       </c>
-      <c r="C211" s="143" t="s">
+      <c r="C211" s="119" t="s">
         <v>386</v>
       </c>
-      <c r="D211" s="128"/>
-      <c r="E211" s="128"/>
-      <c r="L211" s="129"/>
-      <c r="M211" s="129"/>
-    </row>
-    <row r="212" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B212" s="144">
+      <c r="D211" s="104"/>
+      <c r="E211" s="104"/>
+      <c r="L211" s="105"/>
+      <c r="M211" s="105"/>
+    </row>
+    <row r="212" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B212" s="120">
         <v>2</v>
       </c>
-      <c r="C212" s="143" t="s">
+      <c r="C212" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="D212" s="128"/>
-      <c r="E212" s="128"/>
-      <c r="L212" s="129"/>
-      <c r="M212" s="129"/>
-    </row>
-    <row r="213" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B213" s="144">
+      <c r="D212" s="104"/>
+      <c r="E212" s="104"/>
+      <c r="L212" s="105"/>
+      <c r="M212" s="105"/>
+    </row>
+    <row r="213" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B213" s="120">
         <v>3</v>
       </c>
-      <c r="C213" s="146" t="s">
+      <c r="C213" s="122" t="s">
         <v>388</v>
       </c>
-      <c r="D213" s="128"/>
-      <c r="E213" s="128"/>
-      <c r="L213" s="129"/>
-      <c r="M213" s="129"/>
-    </row>
-    <row r="214" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B214" s="144">
-        <v>1</v>
-      </c>
-      <c r="C214" s="143" t="s">
+      <c r="D213" s="104"/>
+      <c r="E213" s="104"/>
+      <c r="L213" s="105"/>
+      <c r="M213" s="105"/>
+    </row>
+    <row r="214" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B214" s="120">
+        <v>1</v>
+      </c>
+      <c r="C214" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="D214" s="128"/>
-      <c r="E214" s="128"/>
-      <c r="L214" s="129"/>
-      <c r="M214" s="129"/>
-    </row>
-    <row r="215" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B215" s="144">
-        <v>1</v>
-      </c>
-      <c r="C215" s="143" t="s">
+      <c r="D214" s="104"/>
+      <c r="E214" s="104"/>
+      <c r="L214" s="105"/>
+      <c r="M214" s="105"/>
+    </row>
+    <row r="215" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B215" s="120">
+        <v>1</v>
+      </c>
+      <c r="C215" s="119" t="s">
         <v>390</v>
       </c>
-      <c r="D215" s="128"/>
-      <c r="E215" s="128"/>
-      <c r="L215" s="129"/>
-      <c r="M215" s="129"/>
-    </row>
-    <row r="216" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B216" s="144">
-        <v>1</v>
-      </c>
-      <c r="C216" s="143" t="s">
+      <c r="D215" s="104"/>
+      <c r="E215" s="104"/>
+      <c r="L215" s="105"/>
+      <c r="M215" s="105"/>
+    </row>
+    <row r="216" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B216" s="120">
+        <v>1</v>
+      </c>
+      <c r="C216" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="D216" s="128"/>
-      <c r="E216" s="128"/>
-      <c r="L216" s="129"/>
-      <c r="M216" s="129"/>
-    </row>
-    <row r="217" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B217" s="144">
-        <v>1</v>
-      </c>
-      <c r="C217" s="143" t="s">
+      <c r="D216" s="104"/>
+      <c r="E216" s="104"/>
+      <c r="L216" s="105"/>
+      <c r="M216" s="105"/>
+    </row>
+    <row r="217" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B217" s="120">
+        <v>1</v>
+      </c>
+      <c r="C217" s="119" t="s">
         <v>392</v>
       </c>
-      <c r="D217" s="128"/>
-      <c r="E217" s="128"/>
-      <c r="L217" s="129"/>
-      <c r="M217" s="129"/>
-    </row>
-    <row r="218" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B218" s="144">
-        <v>1</v>
-      </c>
-      <c r="C218" s="143" t="s">
+      <c r="D217" s="104"/>
+      <c r="E217" s="104"/>
+      <c r="L217" s="105"/>
+      <c r="M217" s="105"/>
+    </row>
+    <row r="218" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B218" s="120">
+        <v>1</v>
+      </c>
+      <c r="C218" s="119" t="s">
         <v>393</v>
       </c>
-      <c r="D218" s="128"/>
-      <c r="E218" s="128"/>
-      <c r="L218" s="129"/>
-      <c r="M218" s="129"/>
-    </row>
-    <row r="219" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B219" s="144">
-        <v>1</v>
-      </c>
-      <c r="C219" s="143" t="s">
+      <c r="D218" s="104"/>
+      <c r="E218" s="104"/>
+      <c r="L218" s="105"/>
+      <c r="M218" s="105"/>
+    </row>
+    <row r="219" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B219" s="120">
+        <v>1</v>
+      </c>
+      <c r="C219" s="119" t="s">
         <v>394</v>
       </c>
-      <c r="D219" s="128"/>
-      <c r="E219" s="128"/>
-      <c r="L219" s="129"/>
-      <c r="M219" s="129"/>
-    </row>
-    <row r="220" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B220" s="144">
-        <v>1</v>
-      </c>
-      <c r="C220" s="147" t="s">
+      <c r="D219" s="104"/>
+      <c r="E219" s="104"/>
+      <c r="L219" s="105"/>
+      <c r="M219" s="105"/>
+    </row>
+    <row r="220" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B220" s="120">
+        <v>1</v>
+      </c>
+      <c r="C220" s="123" t="s">
         <v>395</v>
       </c>
-      <c r="D220" s="128"/>
-      <c r="E220" s="128"/>
-      <c r="L220" s="129"/>
-      <c r="M220" s="129"/>
-    </row>
-    <row r="221" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B221" s="144">
-        <v>1</v>
-      </c>
-      <c r="C221" s="147" t="s">
+      <c r="D220" s="104"/>
+      <c r="E220" s="104"/>
+      <c r="L220" s="105"/>
+      <c r="M220" s="105"/>
+    </row>
+    <row r="221" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B221" s="120">
+        <v>1</v>
+      </c>
+      <c r="C221" s="123" t="s">
         <v>396</v>
       </c>
-      <c r="D221" s="128"/>
-      <c r="E221" s="128"/>
-      <c r="L221" s="129"/>
-      <c r="M221" s="129"/>
-    </row>
-    <row r="222" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B222" s="144">
-        <v>1</v>
-      </c>
-      <c r="C222" s="143" t="s">
+      <c r="D221" s="104"/>
+      <c r="E221" s="104"/>
+      <c r="L221" s="105"/>
+      <c r="M221" s="105"/>
+    </row>
+    <row r="222" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B222" s="120">
+        <v>1</v>
+      </c>
+      <c r="C222" s="119" t="s">
         <v>397</v>
       </c>
-      <c r="D222" s="128"/>
-      <c r="E222" s="128"/>
-      <c r="L222" s="129"/>
-      <c r="M222" s="129"/>
-    </row>
-    <row r="223" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B223" s="144">
+      <c r="D222" s="104"/>
+      <c r="E222" s="104"/>
+      <c r="L222" s="105"/>
+      <c r="M222" s="105"/>
+    </row>
+    <row r="223" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B223" s="120">
         <v>2</v>
       </c>
-      <c r="C223" s="143" t="s">
+      <c r="C223" s="119" t="s">
         <v>398</v>
       </c>
-      <c r="D223" s="128"/>
-      <c r="E223" s="128"/>
-      <c r="L223" s="129"/>
-      <c r="M223" s="129"/>
-    </row>
-    <row r="224" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B224" s="144">
+      <c r="D223" s="104"/>
+      <c r="E223" s="104"/>
+      <c r="L223" s="105"/>
+      <c r="M223" s="105"/>
+    </row>
+    <row r="224" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B224" s="120">
         <v>2</v>
       </c>
-      <c r="C224" s="143" t="s">
+      <c r="C224" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="D224" s="128"/>
-      <c r="E224" s="128"/>
-      <c r="L224" s="129"/>
-      <c r="M224" s="129"/>
-    </row>
-    <row r="225" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B225" s="144">
-        <v>1</v>
-      </c>
-      <c r="C225" s="143" t="s">
+      <c r="D224" s="104"/>
+      <c r="E224" s="104"/>
+      <c r="L224" s="105"/>
+      <c r="M224" s="105"/>
+    </row>
+    <row r="225" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B225" s="120">
+        <v>1</v>
+      </c>
+      <c r="C225" s="119" t="s">
         <v>400</v>
       </c>
-      <c r="D225" s="128"/>
-      <c r="E225" s="128"/>
-      <c r="L225" s="129"/>
-      <c r="M225" s="129"/>
-    </row>
-    <row r="226" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B226" s="144">
+      <c r="D225" s="104"/>
+      <c r="E225" s="104"/>
+      <c r="L225" s="105"/>
+      <c r="M225" s="105"/>
+    </row>
+    <row r="226" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B226" s="120">
         <v>2</v>
       </c>
-      <c r="C226" s="143" t="s">
+      <c r="C226" s="119" t="s">
         <v>401</v>
       </c>
-      <c r="D226" s="128"/>
-      <c r="E226" s="128"/>
-      <c r="L226" s="129"/>
-      <c r="M226" s="129"/>
-    </row>
-    <row r="227" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B227" s="144">
-        <v>1</v>
-      </c>
-      <c r="C227" s="143" t="s">
+      <c r="D226" s="104"/>
+      <c r="E226" s="104"/>
+      <c r="L226" s="105"/>
+      <c r="M226" s="105"/>
+    </row>
+    <row r="227" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B227" s="120">
+        <v>1</v>
+      </c>
+      <c r="C227" s="119" t="s">
         <v>402</v>
       </c>
-      <c r="D227" s="128"/>
-      <c r="E227" s="128"/>
-      <c r="L227" s="129"/>
-      <c r="M227" s="129"/>
-    </row>
-    <row r="228" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B228" s="144">
+      <c r="D227" s="104"/>
+      <c r="E227" s="104"/>
+      <c r="L227" s="105"/>
+      <c r="M227" s="105"/>
+    </row>
+    <row r="228" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B228" s="120">
         <v>2</v>
       </c>
-      <c r="C228" s="143" t="s">
+      <c r="C228" s="119" t="s">
         <v>403</v>
       </c>
-      <c r="D228" s="128"/>
-      <c r="E228" s="128"/>
-      <c r="L228" s="129"/>
-      <c r="M228" s="129"/>
-    </row>
-    <row r="229" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B229" s="144">
-        <v>1</v>
-      </c>
-      <c r="C229" s="143" t="s">
+      <c r="D228" s="104"/>
+      <c r="E228" s="104"/>
+      <c r="L228" s="105"/>
+      <c r="M228" s="105"/>
+    </row>
+    <row r="229" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B229" s="120">
+        <v>1</v>
+      </c>
+      <c r="C229" s="119" t="s">
         <v>404</v>
       </c>
-      <c r="D229" s="128"/>
-      <c r="E229" s="128"/>
-      <c r="L229" s="129"/>
-      <c r="M229" s="129"/>
-    </row>
-    <row r="230" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B230" s="145">
+      <c r="D229" s="104"/>
+      <c r="E229" s="104"/>
+      <c r="L229" s="105"/>
+      <c r="M229" s="105"/>
+    </row>
+    <row r="230" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B230" s="121">
         <v>29</v>
       </c>
-      <c r="C230" s="143"/>
-      <c r="D230" s="128"/>
-      <c r="E230" s="128"/>
-      <c r="L230" s="129"/>
-      <c r="M230" s="129"/>
-    </row>
-    <row r="231" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B231" s="149"/>
-      <c r="C231" s="149"/>
-      <c r="D231" s="128"/>
-      <c r="E231" s="128"/>
-      <c r="L231" s="129"/>
-      <c r="M231" s="129"/>
+      <c r="C230" s="119"/>
+      <c r="D230" s="104"/>
+      <c r="E230" s="104"/>
+      <c r="L230" s="105"/>
+      <c r="M230" s="105"/>
+    </row>
+    <row r="231" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B231" s="125"/>
+      <c r="C231" s="125"/>
+      <c r="D231" s="104"/>
+      <c r="E231" s="104"/>
+      <c r="L231" s="105"/>
+      <c r="M231" s="105"/>
     </row>
     <row r="232" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B232" s="146"/>
-      <c r="C232" s="145" t="s">
+      <c r="B232" s="122"/>
+      <c r="C232" s="121" t="s">
         <v>405</v>
       </c>
       <c r="L232" s="36"/>
       <c r="M232" s="36"/>
     </row>
     <row r="233" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B233" s="144">
-        <v>1</v>
-      </c>
-      <c r="C233" s="143" t="s">
+      <c r="B233" s="120">
+        <v>1</v>
+      </c>
+      <c r="C233" s="119" t="s">
         <v>406</v>
       </c>
       <c r="L233" s="36"/>
       <c r="M233" s="36"/>
     </row>
     <row r="234" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B234" s="144">
+      <c r="B234" s="120">
         <v>2</v>
       </c>
-      <c r="C234" s="143" t="s">
+      <c r="C234" s="119" t="s">
         <v>407</v>
       </c>
       <c r="L234" s="36"/>
       <c r="M234" s="36"/>
     </row>
     <row r="235" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B235" s="144">
-        <v>1</v>
-      </c>
-      <c r="C235" s="143" t="s">
+      <c r="B235" s="120">
+        <v>1</v>
+      </c>
+      <c r="C235" s="119" t="s">
         <v>408</v>
       </c>
       <c r="L235" s="36"/>
       <c r="M235" s="36"/>
     </row>
     <row r="236" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B236" s="144">
-        <v>1</v>
-      </c>
-      <c r="C236" s="143" t="s">
+      <c r="B236" s="120">
+        <v>1</v>
+      </c>
+      <c r="C236" s="119" t="s">
         <v>409</v>
       </c>
       <c r="L236" s="36"/>
       <c r="M236" s="36"/>
     </row>
     <row r="237" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B237" s="144">
-        <v>1</v>
-      </c>
-      <c r="C237" s="143" t="s">
+      <c r="B237" s="120">
+        <v>1</v>
+      </c>
+      <c r="C237" s="119" t="s">
         <v>410</v>
       </c>
       <c r="L237" s="36"/>
       <c r="M237" s="36"/>
     </row>
     <row r="238" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B238" s="144">
-        <v>1</v>
-      </c>
-      <c r="C238" s="143" t="s">
+      <c r="B238" s="120">
+        <v>1</v>
+      </c>
+      <c r="C238" s="119" t="s">
         <v>411</v>
       </c>
       <c r="L238" s="36"/>
       <c r="M238" s="36"/>
     </row>
     <row r="239" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B239" s="144">
-        <v>1</v>
-      </c>
-      <c r="C239" s="148" t="s">
+      <c r="B239" s="120">
+        <v>1</v>
+      </c>
+      <c r="C239" s="124" t="s">
         <v>412</v>
       </c>
       <c r="L239" s="36"/>
       <c r="M239" s="36"/>
     </row>
     <row r="240" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B240" s="144">
-        <v>1</v>
-      </c>
-      <c r="C240" s="143" t="s">
+      <c r="B240" s="120">
+        <v>1</v>
+      </c>
+      <c r="C240" s="119" t="s">
         <v>413</v>
       </c>
       <c r="L240" s="36"/>
       <c r="M240" s="36"/>
     </row>
     <row r="241" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B241" s="144">
-        <v>1</v>
-      </c>
-      <c r="C241" s="143" t="s">
+      <c r="B241" s="120">
+        <v>1</v>
+      </c>
+      <c r="C241" s="119" t="s">
         <v>414</v>
       </c>
       <c r="L241" s="36"/>
       <c r="M241" s="36"/>
     </row>
     <row r="242" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B242" s="144">
-        <v>1</v>
-      </c>
-      <c r="C242" s="143" t="s">
+      <c r="B242" s="120">
+        <v>1</v>
+      </c>
+      <c r="C242" s="119" t="s">
         <v>415</v>
       </c>
       <c r="L242" s="36"/>
       <c r="M242" s="36"/>
     </row>
     <row r="243" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B243" s="145">
+      <c r="B243" s="121">
         <v>11</v>
       </c>
-      <c r="C243" s="146"/>
+      <c r="C243" s="122"/>
       <c r="L243" s="36"/>
       <c r="M243" s="36"/>
     </row>
@@ -6660,571 +6660,571 @@
       <c r="L244" s="36"/>
       <c r="M244" s="36"/>
     </row>
-    <row r="245" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="245" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B245" s="59"/>
       <c r="C245" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="D245" s="128"/>
-      <c r="E245" s="128"/>
-      <c r="L245" s="129"/>
-      <c r="M245" s="129"/>
-    </row>
-    <row r="246" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D245" s="104"/>
+      <c r="E245" s="104"/>
+      <c r="L245" s="105"/>
+      <c r="M245" s="105"/>
+    </row>
+    <row r="246" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B246" s="59" t="s">
         <v>110</v>
       </c>
       <c r="C246" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D246" s="128"/>
-      <c r="E246" s="128"/>
-      <c r="L246" s="129"/>
-      <c r="M246" s="129"/>
-    </row>
-    <row r="247" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D246" s="104"/>
+      <c r="E246" s="104"/>
+      <c r="L246" s="105"/>
+      <c r="M246" s="105"/>
+    </row>
+    <row r="247" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B247" s="59">
         <v>2</v>
       </c>
       <c r="C247" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="D247" s="128"/>
-      <c r="E247" s="128"/>
-      <c r="L247" s="129"/>
-      <c r="M247" s="129"/>
-    </row>
-    <row r="248" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D247" s="104"/>
+      <c r="E247" s="104"/>
+      <c r="L247" s="105"/>
+      <c r="M247" s="105"/>
+    </row>
+    <row r="248" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B248" s="59">
         <v>2</v>
       </c>
       <c r="C248" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="D248" s="128"/>
-      <c r="E248" s="128"/>
-      <c r="L248" s="129"/>
-      <c r="M248" s="129"/>
-    </row>
-    <row r="249" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D248" s="104"/>
+      <c r="E248" s="104"/>
+      <c r="L248" s="105"/>
+      <c r="M248" s="105"/>
+    </row>
+    <row r="249" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B249" s="59">
         <v>2</v>
       </c>
       <c r="C249" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="D249" s="128"/>
-      <c r="E249" s="128"/>
-      <c r="L249" s="129"/>
-      <c r="M249" s="129"/>
-    </row>
-    <row r="250" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D249" s="104"/>
+      <c r="E249" s="104"/>
+      <c r="L249" s="105"/>
+      <c r="M249" s="105"/>
+    </row>
+    <row r="250" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B250" s="59">
         <v>2</v>
       </c>
       <c r="C250" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="D250" s="128"/>
-      <c r="E250" s="128"/>
-      <c r="L250" s="129"/>
-      <c r="M250" s="129"/>
-    </row>
-    <row r="251" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D250" s="104"/>
+      <c r="E250" s="104"/>
+      <c r="L250" s="105"/>
+      <c r="M250" s="105"/>
+    </row>
+    <row r="251" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B251" s="59">
         <v>2</v>
       </c>
       <c r="C251" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="D251" s="128"/>
-      <c r="E251" s="128"/>
-      <c r="L251" s="129"/>
-      <c r="M251" s="129"/>
-    </row>
-    <row r="252" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D251" s="104"/>
+      <c r="E251" s="104"/>
+      <c r="L251" s="105"/>
+      <c r="M251" s="105"/>
+    </row>
+    <row r="252" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B252" s="59">
         <v>1</v>
       </c>
       <c r="C252" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="D252" s="128"/>
-      <c r="E252" s="128"/>
-      <c r="L252" s="129"/>
-      <c r="M252" s="129"/>
-    </row>
-    <row r="253" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D252" s="104"/>
+      <c r="E252" s="104"/>
+      <c r="L252" s="105"/>
+      <c r="M252" s="105"/>
+    </row>
+    <row r="253" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B253" s="59">
         <v>1</v>
       </c>
       <c r="C253" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="D253" s="128"/>
-      <c r="E253" s="128"/>
-      <c r="L253" s="129"/>
-      <c r="M253" s="129"/>
-    </row>
-    <row r="254" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D253" s="104"/>
+      <c r="E253" s="104"/>
+      <c r="L253" s="105"/>
+      <c r="M253" s="105"/>
+    </row>
+    <row r="254" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B254" s="59">
         <v>1</v>
       </c>
       <c r="C254" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="D254" s="128"/>
-      <c r="E254" s="128"/>
-      <c r="L254" s="129"/>
-      <c r="M254" s="129"/>
-    </row>
-    <row r="255" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D254" s="104"/>
+      <c r="E254" s="104"/>
+      <c r="L254" s="105"/>
+      <c r="M254" s="105"/>
+    </row>
+    <row r="255" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B255" s="59">
         <v>1</v>
       </c>
       <c r="C255" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="D255" s="128"/>
-      <c r="E255" s="128"/>
-      <c r="L255" s="129"/>
-      <c r="M255" s="129"/>
-    </row>
-    <row r="256" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D255" s="104"/>
+      <c r="E255" s="104"/>
+      <c r="L255" s="105"/>
+      <c r="M255" s="105"/>
+    </row>
+    <row r="256" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B256" s="59">
         <v>2</v>
       </c>
       <c r="C256" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="D256" s="128"/>
-      <c r="E256" s="128"/>
-      <c r="L256" s="129"/>
-      <c r="M256" s="129"/>
-    </row>
-    <row r="257" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D256" s="104"/>
+      <c r="E256" s="104"/>
+      <c r="L256" s="105"/>
+      <c r="M256" s="105"/>
+    </row>
+    <row r="257" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B257" s="59">
         <v>1</v>
       </c>
       <c r="C257" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="D257" s="128"/>
-      <c r="E257" s="128"/>
-      <c r="L257" s="129"/>
-      <c r="M257" s="129"/>
-    </row>
-    <row r="258" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D257" s="104"/>
+      <c r="E257" s="104"/>
+      <c r="L257" s="105"/>
+      <c r="M257" s="105"/>
+    </row>
+    <row r="258" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B258" s="59">
         <v>1</v>
       </c>
       <c r="C258" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="D258" s="128"/>
-      <c r="E258" s="128"/>
-      <c r="L258" s="129"/>
-      <c r="M258" s="129"/>
-    </row>
-    <row r="259" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D258" s="104"/>
+      <c r="E258" s="104"/>
+      <c r="L258" s="105"/>
+      <c r="M258" s="105"/>
+    </row>
+    <row r="259" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B259" s="59">
         <v>1</v>
       </c>
       <c r="C259" s="60" t="s">
         <v>423</v>
       </c>
-      <c r="D259" s="128"/>
-      <c r="E259" s="128"/>
-      <c r="L259" s="129"/>
-      <c r="M259" s="129"/>
-    </row>
-    <row r="260" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D259" s="104"/>
+      <c r="E259" s="104"/>
+      <c r="L259" s="105"/>
+      <c r="M259" s="105"/>
+    </row>
+    <row r="260" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B260" s="59">
         <v>1</v>
       </c>
       <c r="C260" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D260" s="128"/>
-      <c r="E260" s="128"/>
-      <c r="L260" s="129"/>
-      <c r="M260" s="129"/>
-    </row>
-    <row r="261" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D260" s="104"/>
+      <c r="E260" s="104"/>
+      <c r="L260" s="105"/>
+      <c r="M260" s="105"/>
+    </row>
+    <row r="261" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B261" s="59">
         <v>1</v>
       </c>
       <c r="C261" s="60" t="s">
         <v>424</v>
       </c>
-      <c r="D261" s="128"/>
-      <c r="E261" s="128"/>
-      <c r="L261" s="129"/>
-      <c r="M261" s="129"/>
-    </row>
-    <row r="262" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D261" s="104"/>
+      <c r="E261" s="104"/>
+      <c r="L261" s="105"/>
+      <c r="M261" s="105"/>
+    </row>
+    <row r="262" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B262" s="59">
         <v>1</v>
       </c>
       <c r="C262" s="60" t="s">
         <v>425</v>
       </c>
-      <c r="D262" s="128"/>
-      <c r="E262" s="128"/>
-      <c r="L262" s="129"/>
-      <c r="M262" s="129"/>
-    </row>
-    <row r="263" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D262" s="104"/>
+      <c r="E262" s="104"/>
+      <c r="L262" s="105"/>
+      <c r="M262" s="105"/>
+    </row>
+    <row r="263" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B263" s="59">
         <v>2</v>
       </c>
       <c r="C263" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="D263" s="128"/>
-      <c r="E263" s="128"/>
-      <c r="L263" s="129"/>
-      <c r="M263" s="129"/>
-    </row>
-    <row r="264" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D263" s="104"/>
+      <c r="E263" s="104"/>
+      <c r="L263" s="105"/>
+      <c r="M263" s="105"/>
+    </row>
+    <row r="264" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B264" s="59">
         <v>22</v>
       </c>
       <c r="C264" s="60"/>
-      <c r="D264" s="128"/>
-      <c r="E264" s="128"/>
-      <c r="L264" s="129"/>
-      <c r="M264" s="129"/>
-    </row>
-    <row r="265" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D264" s="104"/>
+      <c r="E264" s="104"/>
+      <c r="L264" s="105"/>
+      <c r="M264" s="105"/>
+    </row>
+    <row r="265" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B265" s="59"/>
       <c r="C265" s="60"/>
-      <c r="D265" s="128"/>
-      <c r="E265" s="128"/>
-      <c r="L265" s="129"/>
-      <c r="M265" s="129"/>
-    </row>
-    <row r="266" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B266" s="159"/>
-      <c r="C266" s="160" t="s">
+      <c r="D265" s="104"/>
+      <c r="E265" s="104"/>
+      <c r="L265" s="105"/>
+      <c r="M265" s="105"/>
+    </row>
+    <row r="266" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B266" s="135"/>
+      <c r="C266" s="136" t="s">
         <v>427</v>
       </c>
-      <c r="D266" s="151"/>
-      <c r="E266" s="151"/>
-      <c r="L266" s="152"/>
-      <c r="M266" s="152"/>
-    </row>
-    <row r="267" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B267" s="156" t="s">
+      <c r="D266" s="127"/>
+      <c r="E266" s="127"/>
+      <c r="L266" s="128"/>
+      <c r="M266" s="128"/>
+    </row>
+    <row r="267" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B267" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="C267" s="161" t="s">
+      <c r="C267" s="137" t="s">
         <v>428</v>
       </c>
-      <c r="D267" s="151"/>
-      <c r="E267" s="151"/>
-      <c r="L267" s="152"/>
-      <c r="M267" s="152"/>
-    </row>
-    <row r="268" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B268" s="156"/>
-      <c r="C268" s="161" t="s">
+      <c r="D267" s="127"/>
+      <c r="E267" s="127"/>
+      <c r="L267" s="128"/>
+      <c r="M267" s="128"/>
+    </row>
+    <row r="268" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B268" s="132"/>
+      <c r="C268" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="D268" s="151"/>
-      <c r="E268" s="151"/>
-      <c r="L268" s="152"/>
-      <c r="M268" s="152"/>
-    </row>
-    <row r="269" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B269" s="154">
-        <v>1</v>
-      </c>
-      <c r="C269" s="155" t="s">
+      <c r="D268" s="127"/>
+      <c r="E268" s="127"/>
+      <c r="L268" s="128"/>
+      <c r="M268" s="128"/>
+    </row>
+    <row r="269" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B269" s="130">
+        <v>1</v>
+      </c>
+      <c r="C269" s="131" t="s">
         <v>429</v>
       </c>
-      <c r="D269" s="151"/>
-      <c r="E269" s="151"/>
-      <c r="L269" s="152"/>
-      <c r="M269" s="152"/>
-    </row>
-    <row r="270" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B270" s="154">
-        <v>1</v>
-      </c>
-      <c r="C270" s="155" t="s">
+      <c r="D269" s="127"/>
+      <c r="E269" s="127"/>
+      <c r="L269" s="128"/>
+      <c r="M269" s="128"/>
+    </row>
+    <row r="270" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B270" s="130">
+        <v>1</v>
+      </c>
+      <c r="C270" s="131" t="s">
         <v>430</v>
       </c>
-      <c r="D270" s="151"/>
-      <c r="E270" s="151"/>
-      <c r="L270" s="152"/>
-      <c r="M270" s="152"/>
-    </row>
-    <row r="271" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B271" s="154">
-        <v>1</v>
-      </c>
-      <c r="C271" s="155" t="s">
+      <c r="D270" s="127"/>
+      <c r="E270" s="127"/>
+      <c r="L270" s="128"/>
+      <c r="M270" s="128"/>
+    </row>
+    <row r="271" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B271" s="130">
+        <v>1</v>
+      </c>
+      <c r="C271" s="131" t="s">
         <v>431</v>
       </c>
-      <c r="D271" s="151"/>
-      <c r="E271" s="151"/>
-      <c r="L271" s="152"/>
-      <c r="M271" s="152"/>
-    </row>
-    <row r="272" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B272" s="154">
-        <v>1</v>
-      </c>
-      <c r="C272" s="155" t="s">
+      <c r="D271" s="127"/>
+      <c r="E271" s="127"/>
+      <c r="L271" s="128"/>
+      <c r="M271" s="128"/>
+    </row>
+    <row r="272" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B272" s="130">
+        <v>1</v>
+      </c>
+      <c r="C272" s="131" t="s">
         <v>432</v>
       </c>
-      <c r="D272" s="151"/>
-      <c r="E272" s="151"/>
-      <c r="L272" s="152"/>
-      <c r="M272" s="152"/>
-    </row>
-    <row r="273" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B273" s="164">
+      <c r="D272" s="127"/>
+      <c r="E272" s="127"/>
+      <c r="L272" s="128"/>
+      <c r="M272" s="128"/>
+    </row>
+    <row r="273" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B273" s="140">
         <v>4</v>
       </c>
-      <c r="C273" s="155"/>
-      <c r="D273" s="151"/>
-      <c r="E273" s="151"/>
-      <c r="L273" s="152"/>
-      <c r="M273" s="152"/>
-    </row>
-    <row r="274" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B274" s="156"/>
-      <c r="C274" s="161" t="s">
+      <c r="C273" s="131"/>
+      <c r="D273" s="127"/>
+      <c r="E273" s="127"/>
+      <c r="L273" s="128"/>
+      <c r="M273" s="128"/>
+    </row>
+    <row r="274" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B274" s="132"/>
+      <c r="C274" s="137" t="s">
         <v>433</v>
       </c>
-      <c r="D274" s="151"/>
-      <c r="E274" s="151"/>
-      <c r="L274" s="152"/>
-      <c r="M274" s="152"/>
-    </row>
-    <row r="275" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B275" s="163">
-        <v>1</v>
-      </c>
-      <c r="C275" s="162" t="s">
+      <c r="D274" s="127"/>
+      <c r="E274" s="127"/>
+      <c r="L274" s="128"/>
+      <c r="M274" s="128"/>
+    </row>
+    <row r="275" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B275" s="139">
+        <v>1</v>
+      </c>
+      <c r="C275" s="138" t="s">
         <v>434</v>
       </c>
-      <c r="D275" s="151"/>
-      <c r="E275" s="151"/>
-      <c r="L275" s="152"/>
-      <c r="M275" s="152"/>
-    </row>
-    <row r="276" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B276" s="163">
-        <v>1</v>
-      </c>
-      <c r="C276" s="162" t="s">
+      <c r="D275" s="127"/>
+      <c r="E275" s="127"/>
+      <c r="L275" s="128"/>
+      <c r="M275" s="128"/>
+    </row>
+    <row r="276" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B276" s="139">
+        <v>1</v>
+      </c>
+      <c r="C276" s="138" t="s">
         <v>435</v>
       </c>
-      <c r="D276" s="151"/>
-      <c r="E276" s="151"/>
-      <c r="L276" s="152"/>
-      <c r="M276" s="152"/>
-    </row>
-    <row r="277" spans="2:13" s="150" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B277" s="163">
-        <v>1</v>
-      </c>
-      <c r="C277" s="162" t="s">
+      <c r="D276" s="127"/>
+      <c r="E276" s="127"/>
+      <c r="L276" s="128"/>
+      <c r="M276" s="128"/>
+    </row>
+    <row r="277" spans="2:13" s="126" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B277" s="139">
+        <v>1</v>
+      </c>
+      <c r="C277" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="D277" s="151"/>
-      <c r="E277" s="151"/>
-      <c r="L277" s="152"/>
-      <c r="M277" s="152"/>
-    </row>
-    <row r="278" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B278" s="163">
-        <v>1</v>
-      </c>
-      <c r="C278" s="162" t="s">
+      <c r="D277" s="127"/>
+      <c r="E277" s="127"/>
+      <c r="L277" s="128"/>
+      <c r="M277" s="128"/>
+    </row>
+    <row r="278" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B278" s="139">
+        <v>1</v>
+      </c>
+      <c r="C278" s="138" t="s">
         <v>437</v>
       </c>
-      <c r="D278" s="128"/>
-      <c r="E278" s="128"/>
-      <c r="L278" s="129"/>
-      <c r="M278" s="129"/>
-    </row>
-    <row r="279" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B279" s="163">
-        <v>1</v>
-      </c>
-      <c r="C279" s="162" t="s">
+      <c r="D278" s="104"/>
+      <c r="E278" s="104"/>
+      <c r="L278" s="105"/>
+      <c r="M278" s="105"/>
+    </row>
+    <row r="279" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B279" s="139">
+        <v>1</v>
+      </c>
+      <c r="C279" s="138" t="s">
         <v>438</v>
       </c>
-      <c r="D279" s="128"/>
-      <c r="E279" s="128"/>
-      <c r="L279" s="129"/>
-      <c r="M279" s="129"/>
-    </row>
-    <row r="280" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B280" s="163">
-        <v>1</v>
-      </c>
-      <c r="C280" s="162" t="s">
+      <c r="D279" s="104"/>
+      <c r="E279" s="104"/>
+      <c r="L279" s="105"/>
+      <c r="M279" s="105"/>
+    </row>
+    <row r="280" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B280" s="139">
+        <v>1</v>
+      </c>
+      <c r="C280" s="138" t="s">
         <v>439</v>
       </c>
-      <c r="D280" s="128"/>
-      <c r="E280" s="128"/>
-      <c r="L280" s="129"/>
-      <c r="M280" s="129"/>
-    </row>
-    <row r="281" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B281" s="156">
+      <c r="D280" s="104"/>
+      <c r="E280" s="104"/>
+      <c r="L280" s="105"/>
+      <c r="M280" s="105"/>
+    </row>
+    <row r="281" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B281" s="132">
         <v>6</v>
       </c>
-      <c r="C281" s="161"/>
-      <c r="D281" s="128"/>
-      <c r="E281" s="128"/>
-      <c r="L281" s="129"/>
-      <c r="M281" s="129"/>
-    </row>
-    <row r="282" spans="2:13" s="125" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B282" s="156"/>
-      <c r="C282" s="161" t="s">
+      <c r="C281" s="137"/>
+      <c r="D281" s="104"/>
+      <c r="E281" s="104"/>
+      <c r="L281" s="105"/>
+      <c r="M281" s="105"/>
+    </row>
+    <row r="282" spans="2:13" s="101" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B282" s="132"/>
+      <c r="C282" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="D282" s="128"/>
-      <c r="E282" s="128"/>
-      <c r="L282" s="129"/>
-      <c r="M282" s="129"/>
+      <c r="D282" s="104"/>
+      <c r="E282" s="104"/>
+      <c r="L282" s="105"/>
+      <c r="M282" s="105"/>
     </row>
     <row r="283" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B283" s="154">
-        <v>1</v>
-      </c>
-      <c r="C283" s="155" t="s">
+      <c r="B283" s="130">
+        <v>1</v>
+      </c>
+      <c r="C283" s="131" t="s">
         <v>141</v>
       </c>
       <c r="L283" s="36"/>
       <c r="M283" s="36"/>
     </row>
     <row r="284" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B284" s="154">
-        <v>1</v>
-      </c>
-      <c r="C284" s="155" t="s">
+      <c r="B284" s="130">
+        <v>1</v>
+      </c>
+      <c r="C284" s="131" t="s">
         <v>440</v>
       </c>
       <c r="L284" s="36"/>
       <c r="M284" s="36"/>
     </row>
     <row r="285" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B285" s="154">
-        <v>1</v>
-      </c>
-      <c r="C285" s="155" t="s">
+      <c r="B285" s="130">
+        <v>1</v>
+      </c>
+      <c r="C285" s="131" t="s">
         <v>441</v>
       </c>
       <c r="L285" s="36"/>
       <c r="M285" s="36"/>
     </row>
     <row r="286" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B286" s="154">
-        <v>1</v>
-      </c>
-      <c r="C286" s="155" t="s">
+      <c r="B286" s="130">
+        <v>1</v>
+      </c>
+      <c r="C286" s="131" t="s">
         <v>442</v>
       </c>
       <c r="L286" s="36"/>
       <c r="M286" s="36"/>
     </row>
     <row r="287" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B287" s="154">
-        <v>1</v>
-      </c>
-      <c r="C287" s="155" t="s">
+      <c r="B287" s="130">
+        <v>1</v>
+      </c>
+      <c r="C287" s="131" t="s">
         <v>443</v>
       </c>
       <c r="L287" s="36"/>
       <c r="M287" s="36"/>
     </row>
     <row r="288" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B288" s="163">
+      <c r="B288" s="139">
         <v>4</v>
       </c>
-      <c r="C288" s="162" t="s">
+      <c r="C288" s="138" t="s">
         <v>444</v>
       </c>
       <c r="L288" s="36"/>
       <c r="M288" s="36"/>
     </row>
     <row r="289" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B289" s="156">
+      <c r="B289" s="132">
         <v>6</v>
       </c>
-      <c r="C289" s="155" t="s">
+      <c r="C289" s="131" t="s">
         <v>445</v>
       </c>
       <c r="L289" s="36"/>
       <c r="M289" s="36"/>
     </row>
     <row r="290" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B290" s="154">
-        <v>1</v>
-      </c>
-      <c r="C290" s="155" t="s">
+      <c r="B290" s="130">
+        <v>1</v>
+      </c>
+      <c r="C290" s="131" t="s">
         <v>446</v>
       </c>
       <c r="L290" s="36"/>
       <c r="M290" s="36"/>
     </row>
     <row r="291" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B291" s="154">
-        <v>1</v>
-      </c>
-      <c r="C291" s="155" t="s">
+      <c r="B291" s="130">
+        <v>1</v>
+      </c>
+      <c r="C291" s="131" t="s">
         <v>447</v>
       </c>
       <c r="L291" s="36"/>
       <c r="M291" s="36"/>
     </row>
     <row r="292" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B292" s="164">
+      <c r="B292" s="140">
         <v>17</v>
       </c>
-      <c r="C292" s="155"/>
+      <c r="C292" s="131"/>
       <c r="L292" s="36"/>
       <c r="M292" s="36"/>
     </row>
-    <row r="293" spans="2:13" s="153" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B293" s="164"/>
-      <c r="C293" s="155"/>
-      <c r="D293" s="157"/>
-      <c r="E293" s="157"/>
-      <c r="L293" s="158"/>
-      <c r="M293" s="158"/>
-    </row>
-    <row r="294" spans="2:13" s="153" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B294" s="154">
-        <v>1</v>
-      </c>
-      <c r="C294" s="155" t="s">
+    <row r="293" spans="2:13" s="129" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B293" s="140"/>
+      <c r="C293" s="131"/>
+      <c r="D293" s="133"/>
+      <c r="E293" s="133"/>
+      <c r="L293" s="134"/>
+      <c r="M293" s="134"/>
+    </row>
+    <row r="294" spans="2:13" s="129" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B294" s="130">
+        <v>1</v>
+      </c>
+      <c r="C294" s="131" t="s">
         <v>448</v>
       </c>
-      <c r="D294" s="157"/>
-      <c r="E294" s="157"/>
-      <c r="L294" s="158"/>
-      <c r="M294" s="158"/>
-    </row>
-    <row r="295" spans="2:13" s="153" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B295" s="154">
+      <c r="D294" s="133"/>
+      <c r="E294" s="133"/>
+      <c r="L294" s="134"/>
+      <c r="M294" s="134"/>
+    </row>
+    <row r="295" spans="2:13" s="129" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B295" s="130">
         <v>6</v>
       </c>
-      <c r="C295" s="155" t="s">
+      <c r="C295" s="131" t="s">
         <v>449</v>
       </c>
-      <c r="D295" s="157"/>
-      <c r="E295" s="157"/>
-      <c r="L295" s="158"/>
-      <c r="M295" s="158"/>
+      <c r="D295" s="133"/>
+      <c r="E295" s="133"/>
+      <c r="L295" s="134"/>
+      <c r="M295" s="134"/>
     </row>
     <row r="296" spans="2:13" ht="20.149999999999999" customHeight="1">
       <c r="B296" s="59">
@@ -7255,70 +7255,70 @@
       <c r="M298" s="36"/>
     </row>
     <row r="299" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B299" s="98"/>
-      <c r="C299" s="99"/>
+      <c r="B299" s="74"/>
+      <c r="C299" s="75"/>
       <c r="L299" s="36"/>
       <c r="M299" s="36"/>
     </row>
     <row r="300" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B300" s="98"/>
-      <c r="C300" s="99"/>
+      <c r="B300" s="74"/>
+      <c r="C300" s="75"/>
       <c r="L300" s="36"/>
       <c r="M300" s="36"/>
     </row>
     <row r="301" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B301" s="137" t="s">
+      <c r="B301" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C301" s="138" t="s">
+      <c r="C301" s="114" t="s">
         <v>146</v>
       </c>
       <c r="L301" s="36"/>
       <c r="M301" s="36"/>
     </row>
     <row r="302" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B302" s="139"/>
-      <c r="C302" s="138" t="s">
+      <c r="B302" s="115"/>
+      <c r="C302" s="114" t="s">
         <v>147</v>
       </c>
       <c r="L302" s="36"/>
       <c r="M302" s="36"/>
     </row>
     <row r="303" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B303" s="139"/>
-      <c r="C303" s="138" t="s">
+      <c r="B303" s="115"/>
+      <c r="C303" s="114" t="s">
         <v>148</v>
       </c>
       <c r="L303" s="36"/>
       <c r="M303" s="36"/>
     </row>
     <row r="304" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B304" s="139"/>
-      <c r="C304" s="138" t="s">
+      <c r="B304" s="115"/>
+      <c r="C304" s="114" t="s">
         <v>149</v>
       </c>
       <c r="L304" s="36"/>
       <c r="M304" s="36"/>
     </row>
     <row r="305" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B305" s="139"/>
-      <c r="C305" s="138" t="s">
+      <c r="B305" s="115"/>
+      <c r="C305" s="114" t="s">
         <v>150</v>
       </c>
       <c r="L305" s="36"/>
       <c r="M305" s="36"/>
     </row>
     <row r="306" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B306" s="139"/>
-      <c r="C306" s="138"/>
+      <c r="B306" s="115"/>
+      <c r="C306" s="114"/>
       <c r="L306" s="36"/>
       <c r="M306" s="36"/>
     </row>
     <row r="307" spans="2:13" ht="20.149999999999999" customHeight="1">
-      <c r="B307" s="140" t="s">
+      <c r="B307" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C307" s="141" t="s">
+      <c r="C307" s="117" t="s">
         <v>151</v>
       </c>
       <c r="L307" s="36"/>
@@ -7429,6 +7429,7 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B168:C168"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A41:C41"/>
@@ -7439,7 +7440,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B168:C168"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
